--- a/Things we have to hand in weekly/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
+++ b/Things we have to hand in weekly/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/l_petrov_student_tue_nl/Documents/DBLVis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20181751\OneDrive - TU Eindhoven\Documents\GitHub\DBLVis\Things we have to hand in weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{91A33854-4384-4F7A-A732-0CA2FFBC4EF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6957FC78-5EBC-4101-BBCD-8A2F67551CD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20916" windowHeight="6072" tabRatio="761" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20916" windowHeight="6072" tabRatio="761" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="82">
   <si>
     <t>Tasks</t>
   </si>
@@ -288,16 +288,7 @@
     <t>Sprint Tasks</t>
   </si>
   <si>
-    <t>Sprint Task 4.x</t>
-  </si>
-  <si>
-    <t>Sprint Task 5.x</t>
-  </si>
-  <si>
     <t>Sprint Task x.x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint Task 3.x: </t>
   </si>
   <si>
     <t>DBL HTI + webtech</t>
@@ -325,6 +316,39 @@
   </si>
   <si>
     <t>Sprint Task 1.1: look into data retrieval</t>
+  </si>
+  <si>
+    <t>Submit button --&gt; one file at the time</t>
+  </si>
+  <si>
+    <t>Layout (simple)</t>
+  </si>
+  <si>
+    <t>Client or server? --&gt; research tutor</t>
+  </si>
+  <si>
+    <t>Html file</t>
+  </si>
+  <si>
+    <t>Retrieve data from upload file</t>
+  </si>
+  <si>
+    <t>Look into libraries</t>
+  </si>
+  <si>
+    <t>Research the data files</t>
+  </si>
+  <si>
+    <t>Look into node links and adjacency matrix</t>
+  </si>
+  <si>
+    <t>Research node.js</t>
+  </si>
+  <si>
+    <t>Make a github</t>
+  </si>
+  <si>
+    <t>Make the meeting digital</t>
   </si>
 </sst>
 </file>
@@ -746,7 +770,7 @@
                   <c:v>0.43958333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10625</c:v>
+                  <c:v>0.7416666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.35625000000000001</c:v>
@@ -805,7 +829,7 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="400337368"/>
@@ -886,10 +910,10 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.79166666666666663</c:v>
+                  <c:v>1.09375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98124999999999996</c:v>
+                  <c:v>1.3145833333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1219,37 +1243,37 @@
                   <c:v>Sprint Task 1.1: look into data retrieval</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Sprint Task 3.x: </c:v>
+                  <c:v>Submit button --&gt; one file at the time</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Study</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Sprint Task 5.x</c:v>
+                  <c:v>Client or server? --&gt; research tutor</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Sprint Task x.x</c:v>
+                  <c:v>Html file</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Sprint Task x.x</c:v>
+                  <c:v>Retrieve data from upload file</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Sprint Task x.x</c:v>
+                  <c:v>Look into libraries</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Sprint Task x.x</c:v>
+                  <c:v>Research the data files</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Sprint Task x.x</c:v>
+                  <c:v>Look into node links and adjacency matrix</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Sprint Task x.x</c:v>
+                  <c:v>Research node.js</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Sprint Task x.x</c:v>
+                  <c:v>Make a github</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Sprint Task x.x</c:v>
+                  <c:v>Make the meeting digital</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>Sprint Task x.x</c:v>
@@ -1282,43 +1306,43 @@
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94791666666666674</c:v>
+                  <c:v>1.0729166666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0833333333333332E-2</c:v>
+                  <c:v>0.10416666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1.0416666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -1373,7 +1397,7 @@
           <a:pPr rtl="0">
             <a:defRPr sz="700"/>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1835,7 +1859,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1854,7 +1878,7 @@
         <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1885,7 +1909,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G5" s="29">
         <v>5.833333333333333</v>
@@ -1905,7 +1929,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G6" s="29">
         <v>5.833333333333333</v>
@@ -1925,7 +1949,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G7" s="29">
         <v>5.833333333333333</v>
@@ -1945,7 +1969,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G8" s="29">
         <v>5.833333333333333</v>
@@ -1965,7 +1989,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G9" s="29">
         <v>5.833333333333333</v>
@@ -1985,7 +2009,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G10" s="29">
         <v>5.833333333333333</v>
@@ -1996,7 +2020,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C11" s="28"/>
       <c r="E11" s="15" t="s">
@@ -2012,7 +2036,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C12" s="28"/>
       <c r="E12" s="15" t="s">
@@ -2028,7 +2052,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C13" s="28"/>
       <c r="F13" s="12" t="s">
@@ -2044,7 +2068,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C14" s="28"/>
     </row>
@@ -2053,7 +2077,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C15" s="28"/>
     </row>
@@ -2062,7 +2086,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C16" s="28"/>
     </row>
@@ -2071,7 +2095,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C17" s="28"/>
     </row>
@@ -2080,7 +2104,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C18" s="28"/>
     </row>
@@ -2089,7 +2113,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C19" s="28"/>
     </row>
@@ -2098,7 +2122,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C20" s="28"/>
     </row>
@@ -2107,7 +2131,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C21" s="28"/>
     </row>
@@ -2116,7 +2140,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C22" s="28"/>
     </row>
@@ -2125,7 +2149,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C23" s="28"/>
     </row>
@@ -2134,7 +2158,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="28"/>
     </row>
@@ -2559,7 +2583,7 @@
       </c>
       <c r="C12" s="17">
         <f>SUM(Student3!C12,Student1!C12,Student2!C12,Student4!C12,Student5!C12,Student6!C12,Student7!C12,Student8!C12)</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="D12" s="17">
         <f>SUM(Student3!D12,Student1!D12,Student2!D12,Student4!D12,Student5!D12,Student6!D12,Student7!D12,Student8!D12)</f>
@@ -2599,7 +2623,7 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>0.94791666666666674</v>
+        <v>1.0729166666666667</v>
       </c>
       <c r="N12" s="7" t="str">
         <f>IF(INDEX(Tasks,7,3)&lt;&gt;"",100*M12/INDEX(Tasks,7,3),"")</f>
@@ -2613,7 +2637,7 @@
       </c>
       <c r="C13" s="17">
         <f>SUM(Student3!C13,Student1!C13,Student2!C13,Student4!C13,Student5!C13,Student6!C13,Student7!C13,Student8!C13)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D13" s="17">
         <f>SUM(Student3!D13,Student1!D13,Student2!D13,Student4!D13,Student5!D13,Student6!D13,Student7!D13,Student8!D13)</f>
@@ -2653,7 +2677,7 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>0.10416666666666666</v>
       </c>
       <c r="N13" s="7" t="str">
         <f>IF(INDEX(Tasks,8,3)&lt;&gt;"",100*M13/INDEX(Tasks,8,3),"")</f>
@@ -2663,7 +2687,7 @@
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
-        <v xml:space="preserve">Sprint Task 3.x: </v>
+        <v>Submit button --&gt; one file at the time</v>
       </c>
       <c r="C14" s="17">
         <f>SUM(Student3!C14,Student1!C14,Student2!C14,Student4!C14,Student5!C14,Student6!C14,Student7!C14,Student8!C14)</f>
@@ -2724,7 +2748,7 @@
       </c>
       <c r="D15" s="17">
         <f>SUM(Student3!D15,Student1!D15,Student2!D15,Student4!D15,Student5!D15,Student6!D15,Student7!D15,Student8!D15)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E15" s="17">
         <f>SUM(Student3!E15,Student1!E15,Student2!E15,Student4!E15,Student5!E15,Student6!E15,Student7!E15,Student8!E15)</f>
@@ -2760,7 +2784,7 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N15" s="7" t="str">
         <f>IF(INDEX(Tasks,10,3)&lt;&gt;"",100*M15/INDEX(Tasks,10,3),"")</f>
@@ -2770,7 +2794,7 @@
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
-        <v>Sprint Task 5.x</v>
+        <v>Client or server? --&gt; research tutor</v>
       </c>
       <c r="C16" s="17">
         <f>SUM(Student3!C16,Student1!C16,Student2!C16,Student4!C16,Student5!C16,Student6!C16,Student7!C16,Student8!C16)</f>
@@ -2824,7 +2848,7 @@
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Html file</v>
       </c>
       <c r="C17" s="17">
         <f>SUM(Student3!C17,Student1!C17,Student2!C17,Student4!C17,Student5!C17,Student6!C17,Student7!C17,Student8!C17)</f>
@@ -2832,7 +2856,7 @@
       </c>
       <c r="D17" s="17">
         <f>SUM(Student3!D17,Student1!D17,Student2!D17,Student4!D17,Student5!D17,Student6!D17,Student7!D17,Student8!D17)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E17" s="17">
         <f>SUM(Student3!E17,Student1!E17,Student2!E17,Student4!E17,Student5!E17,Student6!E17,Student7!E17,Student8!E17)</f>
@@ -2868,7 +2892,7 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="N17" s="7" t="str">
         <f>IF(INDEX(Tasks,12,3)&lt;&gt;"",100*M17/INDEX(Tasks,12,3),"")</f>
@@ -2878,7 +2902,7 @@
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Retrieve data from upload file</v>
       </c>
       <c r="C18" s="17">
         <f>SUM(Student3!C18,Student1!C18,Student2!C18,Student4!C18,Student5!C18,Student6!C18,Student7!C18,Student8!C18)</f>
@@ -2932,11 +2956,11 @@
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Look into libraries</v>
       </c>
       <c r="C19" s="17">
         <f>SUM(Student3!C19,Student1!C19,Student2!C19,Student4!C19,Student5!C19,Student6!C19,Student7!C19,Student8!C19)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="D19" s="17">
         <f>SUM(Student3!D19,Student1!D19,Student2!D19,Student4!D19,Student5!D19,Student6!D19,Student7!D19,Student8!D19)</f>
@@ -2976,7 +3000,7 @@
       </c>
       <c r="M19" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="N19" s="7" t="str">
         <f>IF(INDEX(Tasks,14,3)&lt;&gt;"",100*M19/INDEX(Tasks,14,3),"")</f>
@@ -2986,7 +3010,7 @@
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Research the data files</v>
       </c>
       <c r="C20" s="17">
         <f>SUM(Student3!C20,Student1!C20,Student2!C20,Student4!C20,Student5!C20,Student6!C20,Student7!C20,Student8!C20)</f>
@@ -3040,11 +3064,11 @@
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Look into node links and adjacency matrix</v>
       </c>
       <c r="C21" s="17">
         <f>SUM(Student3!C21,Student1!C21,Student2!C21,Student4!C21,Student5!C21,Student6!C21,Student7!C21,Student8!C21)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="D21" s="17">
         <f>SUM(Student3!D21,Student1!D21,Student2!D21,Student4!D21,Student5!D21,Student6!D21,Student7!D21,Student8!D21)</f>
@@ -3084,7 +3108,7 @@
       </c>
       <c r="M21" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="N21" s="7" t="str">
         <f>IF(INDEX(Tasks,16,3)&lt;&gt;"",100*M21/INDEX(Tasks,16,3),"")</f>
@@ -3094,11 +3118,11 @@
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Research node.js</v>
       </c>
       <c r="C22" s="17">
         <f>SUM(Student3!C22,Student1!C22,Student2!C22,Student4!C22,Student5!C22,Student6!C22,Student7!C22,Student8!C22)</f>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="D22" s="17">
         <f>SUM(Student3!D22,Student1!D22,Student2!D22,Student4!D22,Student5!D22,Student6!D22,Student7!D22,Student8!D22)</f>
@@ -3138,7 +3162,7 @@
       </c>
       <c r="M22" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="N22" s="7" t="str">
         <f>IF(INDEX(Tasks,17,3)&lt;&gt;"",100*M22/INDEX(Tasks,17,3),"")</f>
@@ -3148,7 +3172,7 @@
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Make a github</v>
       </c>
       <c r="C23" s="17">
         <f>SUM(Student3!C23,Student1!C23,Student2!C23,Student4!C23,Student5!C23,Student6!C23,Student7!C23,Student8!C23)</f>
@@ -3202,15 +3226,15 @@
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Make the meeting digital</v>
       </c>
       <c r="C24" s="17">
         <f>SUM(Student3!C24,Student1!C24,Student2!C24,Student4!C24,Student5!C24,Student6!C24,Student7!C24,Student8!C24)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D24" s="17">
         <f>SUM(Student3!D24,Student1!D24,Student2!D24,Student4!D24,Student5!D24,Student6!D24,Student7!D24,Student8!D24)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E24" s="17">
         <f>SUM(Student3!E24,Student1!E24,Student2!E24,Student4!E24,Student5!E24,Student6!E24,Student7!E24,Student8!E24)</f>
@@ -3246,7 +3270,7 @@
       </c>
       <c r="M24" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="N24" s="7" t="str">
         <f>IF(INDEX(Tasks,19,3)&lt;&gt;"",100*M24/INDEX(Tasks,19,3),"")</f>
@@ -3400,11 +3424,11 @@
       </c>
       <c r="C32" s="17">
         <f>Student2!C26</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.38541666666666663</v>
       </c>
       <c r="D32" s="17">
         <f>Student2!D26</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.35625000000000007</v>
       </c>
       <c r="E32" s="17">
         <f>Student2!E26</f>
@@ -3440,7 +3464,7 @@
       </c>
       <c r="M32" s="27">
         <f t="shared" si="1"/>
-        <v>0.10625</v>
+        <v>0.7416666666666667</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3746,11 +3770,11 @@
     <row r="39" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C39" s="27">
         <f t="shared" ref="C39:L39" si="2">SUM(C31:C38)</f>
-        <v>0.79166666666666663</v>
+        <v>1.09375</v>
       </c>
       <c r="D39" s="27">
         <f t="shared" si="2"/>
-        <v>0.98124999999999996</v>
+        <v>1.3145833333333334</v>
       </c>
       <c r="E39" s="27">
         <f t="shared" si="2"/>
@@ -3786,7 +3810,7 @@
       </c>
       <c r="M39" s="27">
         <f t="shared" si="1"/>
-        <v>1.7729166666666667</v>
+        <v>2.4083333333333332</v>
       </c>
     </row>
   </sheetData>
@@ -3804,7 +3828,7 @@
   <dimension ref="A2:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4013,7 +4037,7 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
-        <v xml:space="preserve">Sprint Task 3.x: </v>
+        <v>Submit button --&gt; one file at the time</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -4029,7 +4053,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
-        <v>Sprint Task 4.x</v>
+        <v>Layout (simple)</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -4045,7 +4069,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
-        <v>Sprint Task 5.x</v>
+        <v>Client or server? --&gt; research tutor</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -4061,7 +4085,7 @@
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Html file</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -4077,7 +4101,7 @@
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Retrieve data from upload file</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -4093,7 +4117,7 @@
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Look into libraries</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -4109,7 +4133,7 @@
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Research the data files</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -4125,7 +4149,7 @@
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Look into node links and adjacency matrix</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -4141,7 +4165,7 @@
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Research node.js</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -4157,7 +4181,7 @@
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Make a github</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -4173,7 +4197,7 @@
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Make the meeting digital</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -4390,8 +4414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4566,7 +4590,9 @@
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="17">
+        <v>0.125</v>
+      </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -4582,7 +4608,9 @@
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -4596,7 +4624,7 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
-        <v xml:space="preserve">Sprint Task 3.x: </v>
+        <v>Submit button --&gt; one file at the time</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -4612,10 +4640,12 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
-        <v>Sprint Task 4.x</v>
+        <v>Layout (simple)</v>
       </c>
       <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="D15" s="17">
+        <v>0.25</v>
+      </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -4628,7 +4658,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
-        <v>Sprint Task 5.x</v>
+        <v>Client or server? --&gt; research tutor</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -4644,10 +4674,12 @@
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Html file</v>
       </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="D17" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -4660,7 +4692,7 @@
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Retrieve data from upload file</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -4676,9 +4708,11 @@
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
-        <v>Sprint Task x.x</v>
-      </c>
-      <c r="C19" s="17"/>
+        <v>Look into libraries</v>
+      </c>
+      <c r="C19" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -4692,7 +4726,7 @@
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Research the data files</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -4708,9 +4742,11 @@
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
-        <v>Sprint Task x.x</v>
-      </c>
-      <c r="C21" s="17"/>
+        <v>Look into node links and adjacency matrix</v>
+      </c>
+      <c r="C21" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -4724,9 +4760,11 @@
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
-        <v>Sprint Task x.x</v>
-      </c>
-      <c r="C22" s="17"/>
+        <v>Research node.js</v>
+      </c>
+      <c r="C22" s="17">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -4740,7 +4778,7 @@
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Make a github</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -4756,10 +4794,14 @@
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
-        <v>Sprint Task x.x</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+        <v>Make the meeting digital</v>
+      </c>
+      <c r="C24" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D24" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -4788,11 +4830,11 @@
     <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.38541666666666663</v>
       </c>
       <c r="D26" s="22">
         <f t="shared" ref="D26:L26" si="0">SUM(D6:D25)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.35625000000000007</v>
       </c>
       <c r="E26" s="22">
         <f t="shared" si="0"/>
@@ -4845,43 +4887,43 @@
       </c>
       <c r="C28" s="18">
         <f>SUM(C26)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.38541666666666663</v>
       </c>
       <c r="D28" s="18">
         <f>SUM($C$26:D26)</f>
-        <v>0.10625</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="E28" s="18">
         <f>SUM($C$26:E26)</f>
-        <v>0.10625</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="F28" s="18">
         <f>SUM($C$26:F26)</f>
-        <v>0.10625</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="G28" s="18">
         <f>SUM($C$26:G26)</f>
-        <v>0.10625</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="H28" s="18">
         <f>SUM($C$26:H26)</f>
-        <v>0.10625</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="I28" s="18">
         <f>SUM($C$26:I26)</f>
-        <v>0.10625</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="J28" s="18">
         <f>SUM($C$26:J26)</f>
-        <v>0.10625</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="K28" s="18">
         <f>SUM($C$26:K26)</f>
-        <v>0.10625</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="L28" s="18">
         <f>SUM($C$26:L26)</f>
-        <v>0.10625</v>
+        <v>0.7416666666666667</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
@@ -4890,43 +4932,43 @@
       </c>
       <c r="C29" s="18">
         <f>Parameters!$G$6-C28</f>
-        <v>5.75</v>
+        <v>5.4479166666666661</v>
       </c>
       <c r="D29" s="18">
         <f>Parameters!$G$6-D28</f>
-        <v>5.7270833333333329</v>
+        <v>5.0916666666666668</v>
       </c>
       <c r="E29" s="18">
         <f>Parameters!$G$6-E28</f>
-        <v>5.7270833333333329</v>
+        <v>5.0916666666666668</v>
       </c>
       <c r="F29" s="18">
         <f>Parameters!$G$6-F28</f>
-        <v>5.7270833333333329</v>
+        <v>5.0916666666666668</v>
       </c>
       <c r="G29" s="18">
         <f>Parameters!$G$6-G28</f>
-        <v>5.7270833333333329</v>
+        <v>5.0916666666666668</v>
       </c>
       <c r="H29" s="18">
         <f>Parameters!$G$6-H28</f>
-        <v>5.7270833333333329</v>
+        <v>5.0916666666666668</v>
       </c>
       <c r="I29" s="18">
         <f>Parameters!$G$6-I28</f>
-        <v>5.7270833333333329</v>
+        <v>5.0916666666666668</v>
       </c>
       <c r="J29" s="18">
         <f>Parameters!$G$6-J28</f>
-        <v>5.7270833333333329</v>
+        <v>5.0916666666666668</v>
       </c>
       <c r="K29" s="18">
         <f>Parameters!$G$6-K28</f>
-        <v>5.7270833333333329</v>
+        <v>5.0916666666666668</v>
       </c>
       <c r="L29" s="18">
         <f>Parameters!$G$6-L28</f>
-        <v>5.7270833333333329</v>
+        <v>5.0916666666666668</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
@@ -4973,7 +5015,7 @@
   <dimension ref="A2:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5181,7 +5223,7 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
-        <v xml:space="preserve">Sprint Task 3.x: </v>
+        <v>Submit button --&gt; one file at the time</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -5197,7 +5239,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
-        <v>Sprint Task 4.x</v>
+        <v>Layout (simple)</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -5213,7 +5255,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
-        <v>Sprint Task 5.x</v>
+        <v>Client or server? --&gt; research tutor</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -5229,7 +5271,7 @@
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Html file</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -5245,7 +5287,7 @@
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Retrieve data from upload file</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -5261,7 +5303,7 @@
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Look into libraries</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -5277,7 +5319,7 @@
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Research the data files</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -5293,7 +5335,7 @@
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Look into node links and adjacency matrix</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5309,7 +5351,7 @@
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Research node.js</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -5325,7 +5367,7 @@
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Make a github</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -5341,7 +5383,7 @@
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Make the meeting digital</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5768,7 +5810,7 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
-        <v xml:space="preserve">Sprint Task 3.x: </v>
+        <v>Submit button --&gt; one file at the time</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -5784,7 +5826,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
-        <v>Sprint Task 4.x</v>
+        <v>Layout (simple)</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -5800,7 +5842,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
-        <v>Sprint Task 5.x</v>
+        <v>Client or server? --&gt; research tutor</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -5816,7 +5858,7 @@
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Html file</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -5832,7 +5874,7 @@
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Retrieve data from upload file</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -5848,7 +5890,7 @@
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Look into libraries</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -5864,7 +5906,7 @@
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Research the data files</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -5880,7 +5922,7 @@
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Look into node links and adjacency matrix</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5896,7 +5938,7 @@
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Research node.js</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -5912,7 +5954,7 @@
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Make a github</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -5928,7 +5970,7 @@
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Make the meeting digital</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -6144,7 +6186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -6350,7 +6392,7 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
-        <v xml:space="preserve">Sprint Task 3.x: </v>
+        <v>Submit button --&gt; one file at the time</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -6366,7 +6408,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
-        <v>Sprint Task 4.x</v>
+        <v>Layout (simple)</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -6382,7 +6424,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
-        <v>Sprint Task 5.x</v>
+        <v>Client or server? --&gt; research tutor</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -6398,7 +6440,7 @@
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Html file</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -6414,7 +6456,7 @@
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Retrieve data from upload file</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -6430,7 +6472,7 @@
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Look into libraries</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -6446,7 +6488,7 @@
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Research the data files</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -6462,7 +6504,7 @@
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Look into node links and adjacency matrix</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -6478,7 +6520,7 @@
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Research node.js</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -6494,7 +6536,7 @@
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Make a github</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -6510,7 +6552,7 @@
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Make the meeting digital</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -6936,7 +6978,7 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
-        <v xml:space="preserve">Sprint Task 3.x: </v>
+        <v>Submit button --&gt; one file at the time</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -6952,7 +6994,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
-        <v>Sprint Task 4.x</v>
+        <v>Layout (simple)</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -6968,7 +7010,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
-        <v>Sprint Task 5.x</v>
+        <v>Client or server? --&gt; research tutor</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -6984,7 +7026,7 @@
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Html file</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -7000,7 +7042,7 @@
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Retrieve data from upload file</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -7016,7 +7058,7 @@
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Look into libraries</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -7032,7 +7074,7 @@
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Research the data files</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -7048,7 +7090,7 @@
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Look into node links and adjacency matrix</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -7064,7 +7106,7 @@
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Research node.js</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -7080,7 +7122,7 @@
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Make a github</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -7096,7 +7138,7 @@
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Make the meeting digital</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -7512,7 +7554,7 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
-        <v xml:space="preserve">Sprint Task 3.x: </v>
+        <v>Submit button --&gt; one file at the time</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -7528,7 +7570,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
-        <v>Sprint Task 4.x</v>
+        <v>Layout (simple)</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -7544,7 +7586,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
-        <v>Sprint Task 5.x</v>
+        <v>Client or server? --&gt; research tutor</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -7560,7 +7602,7 @@
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Html file</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -7576,7 +7618,7 @@
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Retrieve data from upload file</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -7592,7 +7634,7 @@
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Look into libraries</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -7608,7 +7650,7 @@
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Research the data files</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -7624,7 +7666,7 @@
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Look into node links and adjacency matrix</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -7640,7 +7682,7 @@
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Research node.js</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -7656,7 +7698,7 @@
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Make a github</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -7672,7 +7714,7 @@
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Make the meeting digital</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -7888,8 +7930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8088,7 +8130,7 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
-        <v xml:space="preserve">Sprint Task 3.x: </v>
+        <v>Submit button --&gt; one file at the time</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -8104,7 +8146,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
-        <v>Sprint Task 4.x</v>
+        <v>Layout (simple)</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -8120,7 +8162,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
-        <v>Sprint Task 5.x</v>
+        <v>Client or server? --&gt; research tutor</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -8136,7 +8178,7 @@
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Html file</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -8152,7 +8194,7 @@
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Retrieve data from upload file</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -8168,7 +8210,7 @@
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Look into libraries</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -8184,7 +8226,7 @@
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Research the data files</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -8200,7 +8242,7 @@
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Look into node links and adjacency matrix</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -8216,7 +8258,7 @@
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Research node.js</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -8232,7 +8274,7 @@
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Make a github</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -8248,7 +8290,7 @@
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
-        <v>Sprint Task x.x</v>
+        <v>Make the meeting digital</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>

--- a/Things we have to hand in weekly/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
+++ b/Things we have to hand in weekly/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20181751\OneDrive - TU Eindhoven\Documents\GitHub\DBLVis\Things we have to hand in weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20181903\Documents\GitHub\DBLVis\Things we have to hand in weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6957FC78-5EBC-4101-BBCD-8A2F67551CD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C1CA84-EE43-4389-BCF2-10554FCDBF8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20916" windowHeight="6072" tabRatio="761" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20916" windowHeight="6072" tabRatio="761" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -767,7 +767,7 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.43958333333333333</c:v>
+                  <c:v>0.48125000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.7416666666666667</c:v>
@@ -829,7 +829,7 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="400337368"/>
@@ -913,7 +913,7 @@
                   <c:v>1.09375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3145833333333334</c:v>
+                  <c:v>1.35625</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1306,13 +1306,13 @@
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0729166666666667</c:v>
+                  <c:v>0.98958333333333337</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.10416666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.25</c:v>
@@ -1327,7 +1327,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0833333333333332E-2</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1397,7 +1397,7 @@
           <a:pPr rtl="0">
             <a:defRPr sz="700"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="D12" s="17">
         <f>SUM(Student3!D12,Student1!D12,Student2!D12,Student4!D12,Student5!D12,Student6!D12,Student7!D12,Student8!D12)</f>
-        <v>0.69791666666666674</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="E12" s="17">
         <f>SUM(Student3!E12,Student1!E12,Student2!E12,Student4!E12,Student5!E12,Student6!E12,Student7!E12,Student8!E12)</f>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>1.0729166666666667</v>
+        <v>0.98958333333333337</v>
       </c>
       <c r="N12" s="7" t="str">
         <f>IF(INDEX(Tasks,7,3)&lt;&gt;"",100*M12/INDEX(Tasks,7,3),"")</f>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D14" s="17">
         <f>SUM(Student3!D14,Student1!D14,Student2!D14,Student4!D14,Student5!D14,Student6!D14,Student7!D14,Student8!D14)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E14" s="17">
         <f>SUM(Student3!E14,Student1!E14,Student2!E14,Student4!E14,Student5!E14,Student6!E14,Student7!E14,Student8!E14)</f>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="N14" s="7" t="str">
         <f>IF(INDEX(Tasks,9,3)&lt;&gt;"",100*M14/INDEX(Tasks,9,3),"")</f>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="D19" s="17">
         <f>SUM(Student3!D19,Student1!D19,Student2!D19,Student4!D19,Student5!D19,Student6!D19,Student7!D19,Student8!D19)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E19" s="17">
         <f>SUM(Student3!E19,Student1!E19,Student2!E19,Student4!E19,Student5!E19,Student6!E19,Student7!E19,Student8!E19)</f>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="M19" s="25">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N19" s="7" t="str">
         <f>IF(INDEX(Tasks,14,3)&lt;&gt;"",100*M19/INDEX(Tasks,14,3),"")</f>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="D31" s="17">
         <f>Student1!D26</f>
-        <v>0.23125000000000001</v>
+        <v>0.2729166666666667</v>
       </c>
       <c r="E31" s="17">
         <f>Student1!E26</f>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="M31" s="27">
         <f t="shared" ref="M31:M39" si="1">SUM(C31:L31)</f>
-        <v>0.43958333333333333</v>
+        <v>0.48125000000000001</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="D39" s="27">
         <f t="shared" si="2"/>
-        <v>1.3145833333333334</v>
+        <v>1.35625</v>
       </c>
       <c r="E39" s="27">
         <f t="shared" si="2"/>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="M39" s="27">
         <f t="shared" si="1"/>
-        <v>2.4083333333333332</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3827,8 +3827,8 @@
   </sheetPr>
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17">
-        <v>0.20833333333333334</v>
+        <v>0.125</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -4040,7 +4040,9 @@
         <v>Submit button --&gt; one file at the time</v>
       </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="D14" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -4120,7 +4122,9 @@
         <v>Look into libraries</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="D19" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -4233,7 +4237,7 @@
       </c>
       <c r="D26" s="22">
         <f t="shared" ref="D26:L26" si="0">SUM(D6:D25)</f>
-        <v>0.23125000000000001</v>
+        <v>0.2729166666666667</v>
       </c>
       <c r="E26" s="22">
         <f t="shared" si="0"/>
@@ -4290,39 +4294,39 @@
       </c>
       <c r="D28" s="18">
         <f>SUM($C$26:D26)</f>
-        <v>0.43958333333333333</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="E28" s="18">
         <f>SUM($C$26:E26)</f>
-        <v>0.43958333333333333</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="F28" s="18">
         <f>SUM($C$26:F26)</f>
-        <v>0.43958333333333333</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="G28" s="18">
         <f>SUM($C$26:G26)</f>
-        <v>0.43958333333333333</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="H28" s="18">
         <f>SUM($C$26:H26)</f>
-        <v>0.43958333333333333</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="I28" s="18">
         <f>SUM($C$26:I26)</f>
-        <v>0.43958333333333333</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="J28" s="18">
         <f>SUM($C$26:J26)</f>
-        <v>0.43958333333333333</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="K28" s="18">
         <f>SUM($C$26:K26)</f>
-        <v>0.43958333333333333</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="L28" s="18">
         <f>SUM($C$26:L26)</f>
-        <v>0.43958333333333333</v>
+        <v>0.48125000000000001</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
@@ -4335,39 +4339,39 @@
       </c>
       <c r="D29" s="18">
         <f>Parameters!$G$5-D28</f>
-        <v>5.3937499999999998</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="E29" s="18">
         <f>Parameters!$G$5-E28</f>
-        <v>5.3937499999999998</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="F29" s="18">
         <f>Parameters!$G$5-F28</f>
-        <v>5.3937499999999998</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="G29" s="18">
         <f>Parameters!$G$5-G28</f>
-        <v>5.3937499999999998</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="H29" s="18">
         <f>Parameters!$G$5-H28</f>
-        <v>5.3937499999999998</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="I29" s="18">
         <f>Parameters!$G$5-I28</f>
-        <v>5.3937499999999998</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="J29" s="18">
         <f>Parameters!$G$5-J28</f>
-        <v>5.3937499999999998</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="K29" s="18">
         <f>Parameters!$G$5-K28</f>
-        <v>5.3937499999999998</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="L29" s="18">
         <f>Parameters!$G$5-L28</f>
-        <v>5.3937499999999998</v>
+        <v>5.3520833333333329</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
@@ -4414,7 +4418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>

--- a/Things we have to hand in weekly/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
+++ b/Things we have to hand in weekly/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20181903\Documents\GitHub\DBLVis\Things we have to hand in weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20173771\Documents\GitHub\DBLVis\Things we have to hand in weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C1CA84-EE43-4389-BCF2-10554FCDBF8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB1FD8B-4616-4AD2-9CE5-FA5BFDC4F20C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20916" windowHeight="6072" tabRatio="761" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20916" windowHeight="6072" tabRatio="761" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -674,7 +674,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -692,7 +692,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -782,7 +782,7 @@
                   <c:v>0.23125000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15833333333333333</c:v>
+                  <c:v>0.29722222222222217</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -829,7 +829,7 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="400337368"/>
@@ -875,7 +875,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -910,10 +910,10 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.09375</c:v>
+                  <c:v>1.15625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.35625</c:v>
+                  <c:v>1.4326388888888888</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1014,7 +1014,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1306,7 +1306,7 @@
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98958333333333337</c:v>
+                  <c:v>1.0520833333333335</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.10416666666666666</c:v>
@@ -1327,19 +1327,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>7.6388888888888881E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0833333333333332E-2</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.0416666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>8.3333333333333329E-2</c:v>
@@ -1397,7 +1397,7 @@
           <a:pPr rtl="0">
             <a:defRPr sz="700"/>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1533,7 +1533,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="C12" s="17">
         <f>SUM(Student3!C12,Student1!C12,Student2!C12,Student4!C12,Student5!C12,Student6!C12,Student7!C12,Student8!C12)</f>
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="D12" s="17">
         <f>SUM(Student3!D12,Student1!D12,Student2!D12,Student4!D12,Student5!D12,Student6!D12,Student7!D12,Student8!D12)</f>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>0.98958333333333337</v>
+        <v>1.0520833333333335</v>
       </c>
       <c r="N12" s="7" t="str">
         <f>IF(INDEX(Tasks,7,3)&lt;&gt;"",100*M12/INDEX(Tasks,7,3),"")</f>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="D19" s="17">
         <f>SUM(Student3!D19,Student1!D19,Student2!D19,Student4!D19,Student5!D19,Student6!D19,Student7!D19,Student8!D19)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="E19" s="17">
         <f>SUM(Student3!E19,Student1!E19,Student2!E19,Student4!E19,Student5!E19,Student6!E19,Student7!E19,Student8!E19)</f>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="M19" s="25">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>7.6388888888888881E-2</v>
       </c>
       <c r="N19" s="7" t="str">
         <f>IF(INDEX(Tasks,14,3)&lt;&gt;"",100*M19/INDEX(Tasks,14,3),"")</f>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="D21" s="17">
         <f>SUM(Student3!D21,Student1!D21,Student2!D21,Student4!D21,Student5!D21,Student6!D21,Student7!D21,Student8!D21)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E21" s="17">
         <f>SUM(Student3!E21,Student1!E21,Student2!E21,Student4!E21,Student5!E21,Student6!E21,Student7!E21,Student8!E21)</f>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="M21" s="25">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N21" s="7" t="str">
         <f>IF(INDEX(Tasks,16,3)&lt;&gt;"",100*M21/INDEX(Tasks,16,3),"")</f>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="D23" s="17">
         <f>SUM(Student3!D23,Student1!D23,Student2!D23,Student4!D23,Student5!D23,Student6!D23,Student7!D23,Student8!D23)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E23" s="17">
         <f>SUM(Student3!E23,Student1!E23,Student2!E23,Student4!E23,Student5!E23,Student6!E23,Student7!E23,Student8!E23)</f>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="M23" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="N23" s="7" t="str">
         <f>IF(INDEX(Tasks,18,3)&lt;&gt;"",100*M23/INDEX(Tasks,18,3),"")</f>
@@ -3624,11 +3624,11 @@
       </c>
       <c r="C36" s="17">
         <f>Student6!C26</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.14583333333333331</v>
       </c>
       <c r="D36" s="17">
         <f>Student6!D26</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0.15138888888888888</v>
       </c>
       <c r="E36" s="17">
         <f>Student6!E26</f>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="M36" s="27">
         <f t="shared" si="1"/>
-        <v>0.15833333333333333</v>
+        <v>0.29722222222222217</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3770,11 +3770,11 @@
     <row r="39" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C39" s="27">
         <f t="shared" ref="C39:L39" si="2">SUM(C31:C38)</f>
-        <v>1.09375</v>
+        <v>1.15625</v>
       </c>
       <c r="D39" s="27">
         <f t="shared" si="2"/>
-        <v>1.35625</v>
+        <v>1.4326388888888888</v>
       </c>
       <c r="E39" s="27">
         <f t="shared" si="2"/>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="M39" s="27">
         <f t="shared" si="1"/>
-        <v>2.4500000000000002</v>
+        <v>2.5888888888888886</v>
       </c>
     </row>
   </sheetData>
@@ -3827,7 +3827,7 @@
   </sheetPr>
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -6772,8 +6772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6948,7 +6948,9 @@
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="17">
+        <v>6.25E-2</v>
+      </c>
       <c r="D12" s="17">
         <v>3.125E-2</v>
       </c>
@@ -7065,7 +7067,9 @@
         <v>Look into libraries</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="D19" s="17">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -7097,7 +7101,9 @@
         <v>Look into node links and adjacency matrix</v>
       </c>
       <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="D21" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -7129,7 +7135,9 @@
         <v>Make a github</v>
       </c>
       <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="D23" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -7174,11 +7182,11 @@
     <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.14583333333333331</v>
       </c>
       <c r="D26" s="22">
         <f t="shared" ref="D26:L26" si="0">SUM(D6:D25)</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0.15138888888888888</v>
       </c>
       <c r="E26" s="22">
         <f t="shared" si="0"/>
@@ -7231,43 +7239,43 @@
       </c>
       <c r="C28" s="18">
         <f>SUM(C26)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.14583333333333331</v>
       </c>
       <c r="D28" s="18">
         <f>SUM($C$26:D26)</f>
-        <v>0.15833333333333333</v>
+        <v>0.29722222222222217</v>
       </c>
       <c r="E28" s="18">
         <f>SUM($C$26:E26)</f>
-        <v>0.15833333333333333</v>
+        <v>0.29722222222222217</v>
       </c>
       <c r="F28" s="18">
         <f>SUM($C$26:F26)</f>
-        <v>0.15833333333333333</v>
+        <v>0.29722222222222217</v>
       </c>
       <c r="G28" s="18">
         <f>SUM($C$26:G26)</f>
-        <v>0.15833333333333333</v>
+        <v>0.29722222222222217</v>
       </c>
       <c r="H28" s="18">
         <f>SUM($C$26:H26)</f>
-        <v>0.15833333333333333</v>
+        <v>0.29722222222222217</v>
       </c>
       <c r="I28" s="18">
         <f>SUM($C$26:I26)</f>
-        <v>0.15833333333333333</v>
+        <v>0.29722222222222217</v>
       </c>
       <c r="J28" s="18">
         <f>SUM($C$26:J26)</f>
-        <v>0.15833333333333333</v>
+        <v>0.29722222222222217</v>
       </c>
       <c r="K28" s="18">
         <f>SUM($C$26:K26)</f>
-        <v>0.15833333333333333</v>
+        <v>0.29722222222222217</v>
       </c>
       <c r="L28" s="18">
         <f>SUM($C$26:L26)</f>
-        <v>0.15833333333333333</v>
+        <v>0.29722222222222217</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
@@ -7276,43 +7284,43 @@
       </c>
       <c r="C29" s="18">
         <f>Parameters!$G$10-C28</f>
-        <v>5.75</v>
+        <v>5.6875</v>
       </c>
       <c r="D29" s="18">
         <f>Parameters!$G$10-D28</f>
-        <v>5.6749999999999998</v>
+        <v>5.5361111111111105</v>
       </c>
       <c r="E29" s="18">
         <f>Parameters!$G$10-E28</f>
-        <v>5.6749999999999998</v>
+        <v>5.5361111111111105</v>
       </c>
       <c r="F29" s="18">
         <f>Parameters!$G$10-F28</f>
-        <v>5.6749999999999998</v>
+        <v>5.5361111111111105</v>
       </c>
       <c r="G29" s="18">
         <f>Parameters!$G$10-G28</f>
-        <v>5.6749999999999998</v>
+        <v>5.5361111111111105</v>
       </c>
       <c r="H29" s="18">
         <f>Parameters!$G$10-H28</f>
-        <v>5.6749999999999998</v>
+        <v>5.5361111111111105</v>
       </c>
       <c r="I29" s="18">
         <f>Parameters!$G$10-I28</f>
-        <v>5.6749999999999998</v>
+        <v>5.5361111111111105</v>
       </c>
       <c r="J29" s="18">
         <f>Parameters!$G$10-J28</f>
-        <v>5.6749999999999998</v>
+        <v>5.5361111111111105</v>
       </c>
       <c r="K29" s="18">
         <f>Parameters!$G$10-K28</f>
-        <v>5.6749999999999998</v>
+        <v>5.5361111111111105</v>
       </c>
       <c r="L29" s="18">
         <f>Parameters!$G$10-L28</f>
-        <v>5.6749999999999998</v>
+        <v>5.5361111111111105</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">

--- a/Things we have to hand in weekly/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
+++ b/Things we have to hand in weekly/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20173771\Documents\GitHub\DBLVis\Things we have to hand in weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20181903\Documents\GitHub\DBLVis\Things we have to hand in weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB1FD8B-4616-4AD2-9CE5-FA5BFDC4F20C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839977C7-135D-40D9-B52C-C9B9049F187A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20916" windowHeight="6072" tabRatio="761" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20916" windowHeight="6072" tabRatio="761" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -674,7 +674,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -692,7 +692,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -767,7 +767,7 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.48125000000000001</c:v>
+                  <c:v>0.6479166666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.7416666666666667</c:v>
@@ -829,7 +829,7 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="400337368"/>
@@ -875,7 +875,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -913,7 +913,7 @@
                   <c:v>1.15625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4326388888888888</c:v>
+                  <c:v>1.5993055555555555</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1014,7 +1014,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1324,7 +1324,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>7.6388888888888881E-2</c:v>
@@ -1333,7 +1333,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>0.14583333333333334</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.0416666666666666E-2</c:v>
@@ -1397,7 +1397,7 @@
           <a:pPr rtl="0">
             <a:defRPr sz="700"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1533,7 +1533,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="D18" s="17">
         <f>SUM(Student3!D18,Student1!D18,Student2!D18,Student4!D18,Student5!D18,Student6!D18,Student7!D18,Student8!D18)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E18" s="17">
         <f>SUM(Student3!E18,Student1!E18,Student2!E18,Student4!E18,Student5!E18,Student6!E18,Student7!E18,Student8!E18)</f>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="M18" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="N18" s="7" t="str">
         <f>IF(INDEX(Tasks,13,3)&lt;&gt;"",100*M18/INDEX(Tasks,13,3),"")</f>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="D21" s="17">
         <f>SUM(Student3!D21,Student1!D21,Student2!D21,Student4!D21,Student5!D21,Student6!D21,Student7!D21,Student8!D21)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.125</v>
       </c>
       <c r="E21" s="17">
         <f>SUM(Student3!E21,Student1!E21,Student2!E21,Student4!E21,Student5!E21,Student6!E21,Student7!E21,Student8!E21)</f>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="M21" s="25">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="N21" s="7" t="str">
         <f>IF(INDEX(Tasks,16,3)&lt;&gt;"",100*M21/INDEX(Tasks,16,3),"")</f>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="D31" s="17">
         <f>Student1!D26</f>
-        <v>0.2729166666666667</v>
+        <v>0.43958333333333333</v>
       </c>
       <c r="E31" s="17">
         <f>Student1!E26</f>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="M31" s="27">
         <f t="shared" ref="M31:M39" si="1">SUM(C31:L31)</f>
-        <v>0.48125000000000001</v>
+        <v>0.6479166666666667</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="D39" s="27">
         <f t="shared" si="2"/>
-        <v>1.4326388888888888</v>
+        <v>1.5993055555555555</v>
       </c>
       <c r="E39" s="27">
         <f t="shared" si="2"/>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="M39" s="27">
         <f t="shared" si="1"/>
-        <v>2.5888888888888886</v>
+        <v>2.7555555555555555</v>
       </c>
     </row>
   </sheetData>
@@ -3827,8 +3827,8 @@
   </sheetPr>
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4106,7 +4106,9 @@
         <v>Retrieve data from upload file</v>
       </c>
       <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="D18" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -4156,7 +4158,9 @@
         <v>Look into node links and adjacency matrix</v>
       </c>
       <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="D21" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -4237,7 +4241,7 @@
       </c>
       <c r="D26" s="22">
         <f t="shared" ref="D26:L26" si="0">SUM(D6:D25)</f>
-        <v>0.2729166666666667</v>
+        <v>0.43958333333333333</v>
       </c>
       <c r="E26" s="22">
         <f t="shared" si="0"/>
@@ -4294,39 +4298,39 @@
       </c>
       <c r="D28" s="18">
         <f>SUM($C$26:D26)</f>
-        <v>0.48125000000000001</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="E28" s="18">
         <f>SUM($C$26:E26)</f>
-        <v>0.48125000000000001</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="F28" s="18">
         <f>SUM($C$26:F26)</f>
-        <v>0.48125000000000001</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="G28" s="18">
         <f>SUM($C$26:G26)</f>
-        <v>0.48125000000000001</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="H28" s="18">
         <f>SUM($C$26:H26)</f>
-        <v>0.48125000000000001</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="I28" s="18">
         <f>SUM($C$26:I26)</f>
-        <v>0.48125000000000001</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="J28" s="18">
         <f>SUM($C$26:J26)</f>
-        <v>0.48125000000000001</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="K28" s="18">
         <f>SUM($C$26:K26)</f>
-        <v>0.48125000000000001</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="L28" s="18">
         <f>SUM($C$26:L26)</f>
-        <v>0.48125000000000001</v>
+        <v>0.6479166666666667</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
@@ -4339,39 +4343,39 @@
       </c>
       <c r="D29" s="18">
         <f>Parameters!$G$5-D28</f>
-        <v>5.3520833333333329</v>
+        <v>5.1854166666666668</v>
       </c>
       <c r="E29" s="18">
         <f>Parameters!$G$5-E28</f>
-        <v>5.3520833333333329</v>
+        <v>5.1854166666666668</v>
       </c>
       <c r="F29" s="18">
         <f>Parameters!$G$5-F28</f>
-        <v>5.3520833333333329</v>
+        <v>5.1854166666666668</v>
       </c>
       <c r="G29" s="18">
         <f>Parameters!$G$5-G28</f>
-        <v>5.3520833333333329</v>
+        <v>5.1854166666666668</v>
       </c>
       <c r="H29" s="18">
         <f>Parameters!$G$5-H28</f>
-        <v>5.3520833333333329</v>
+        <v>5.1854166666666668</v>
       </c>
       <c r="I29" s="18">
         <f>Parameters!$G$5-I28</f>
-        <v>5.3520833333333329</v>
+        <v>5.1854166666666668</v>
       </c>
       <c r="J29" s="18">
         <f>Parameters!$G$5-J28</f>
-        <v>5.3520833333333329</v>
+        <v>5.1854166666666668</v>
       </c>
       <c r="K29" s="18">
         <f>Parameters!$G$5-K28</f>
-        <v>5.3520833333333329</v>
+        <v>5.1854166666666668</v>
       </c>
       <c r="L29" s="18">
         <f>Parameters!$G$5-L28</f>
-        <v>5.3520833333333329</v>
+        <v>5.1854166666666668</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
@@ -6772,7 +6776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/Things we have to hand in weekly/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
+++ b/Things we have to hand in weekly/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20181751\OneDrive - TU Eindhoven\Documents\GitHub\DBLVis\Things we have to hand in weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20181903\Documents\GitHub\DBLVis\Things we have to hand in weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE794C45-E907-4B7D-9BAE-D0F3260AF52F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FE6243-95DA-449E-807C-7BC08BE40BCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20916" windowHeight="6072" tabRatio="761" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20916" windowHeight="6072" tabRatio="761" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -853,7 +853,7 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.48125000000000001</c:v>
+                  <c:v>0.6479166666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.7416666666666667</c:v>
@@ -909,7 +909,7 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="400337368"/>
@@ -1318,7 +1318,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>0.14583333333333334</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.0416666666666666E-2</c:v>
@@ -1330,7 +1330,7 @@
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -1418,7 +1418,7 @@
           <a:pPr rtl="0">
             <a:defRPr sz="700"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1879,7 +1879,7 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2312,8 +2312,8 @@
   </sheetPr>
   <dimension ref="A2:Q43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2641,7 +2641,9 @@
         <v>Look into node links and adjacency matrix</v>
       </c>
       <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="D21" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -2705,7 +2707,9 @@
         <v>Submit button --&gt; fix errors</v>
       </c>
       <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="D25" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -2924,7 +2928,7 @@
       </c>
       <c r="D38" s="21">
         <f>SUM(D6:D37)</f>
-        <v>0.2729166666666667</v>
+        <v>0.43958333333333333</v>
       </c>
       <c r="E38" s="21">
         <f t="shared" ref="E38:L38" si="0">SUM(E6:E37)</f>
@@ -2981,39 +2985,39 @@
       </c>
       <c r="D40" s="18">
         <f>SUM($C$38:D38)</f>
-        <v>0.48125000000000001</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="E40" s="18">
         <f>SUM($C$38:E38)</f>
-        <v>0.48125000000000001</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="F40" s="18">
         <f>SUM($C$38:F38)</f>
-        <v>0.48125000000000001</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="G40" s="18">
         <f>SUM($C$38:G38)</f>
-        <v>0.48125000000000001</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="H40" s="18">
         <f>SUM($C$38:H38)</f>
-        <v>0.48125000000000001</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="I40" s="18">
         <f>SUM($C$38:I38)</f>
-        <v>0.48125000000000001</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="J40" s="18">
         <f>SUM($C$38:J38)</f>
-        <v>0.48125000000000001</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="K40" s="18">
         <f>SUM($C$38:K38)</f>
-        <v>0.48125000000000001</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="L40" s="18">
         <f>SUM($C$38:L38)</f>
-        <v>0.48125000000000001</v>
+        <v>0.6479166666666667</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
@@ -3026,39 +3030,39 @@
       </c>
       <c r="D41" s="18">
         <f>Parameters!$G$5-D40</f>
-        <v>5.3520833333333329</v>
+        <v>5.1854166666666668</v>
       </c>
       <c r="E41" s="18">
         <f>Parameters!$G$5-E40</f>
-        <v>5.3520833333333329</v>
+        <v>5.1854166666666668</v>
       </c>
       <c r="F41" s="18">
         <f>Parameters!$G$5-F40</f>
-        <v>5.3520833333333329</v>
+        <v>5.1854166666666668</v>
       </c>
       <c r="G41" s="18">
         <f>Parameters!$G$5-G40</f>
-        <v>5.3520833333333329</v>
+        <v>5.1854166666666668</v>
       </c>
       <c r="H41" s="18">
         <f>Parameters!$G$5-H40</f>
-        <v>5.3520833333333329</v>
+        <v>5.1854166666666668</v>
       </c>
       <c r="I41" s="18">
         <f>Parameters!$G$5-I40</f>
-        <v>5.3520833333333329</v>
+        <v>5.1854166666666668</v>
       </c>
       <c r="J41" s="18">
         <f>Parameters!$G$5-J40</f>
-        <v>5.3520833333333329</v>
+        <v>5.1854166666666668</v>
       </c>
       <c r="K41" s="18">
         <f>Parameters!$G$5-K40</f>
-        <v>5.3520833333333329</v>
+        <v>5.1854166666666668</v>
       </c>
       <c r="L41" s="18">
         <f>Parameters!$G$5-L40</f>
-        <v>5.3520833333333329</v>
+        <v>5.1854166666666668</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
@@ -7006,7 +7010,7 @@
   </sheetPr>
   <dimension ref="B2:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -7881,7 +7885,7 @@
       </c>
       <c r="D21" s="22">
         <f>SUM(Student3!D21,Student1!D21,Student2!D21,Student4!D21,Student5!D21,Student6!D21)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.125</v>
       </c>
       <c r="E21" s="22">
         <f>SUM(Student3!E21,Student1!E21,Student2!E21,Student4!E21,Student5!E21,Student6!E21)</f>
@@ -7917,7 +7921,7 @@
       </c>
       <c r="M21" s="24">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="N21" s="7" t="str">
         <f>IF(INDEX(Tasks,16,3)&lt;&gt;"",100*M21/INDEX(Tasks,16,3),"")</f>
@@ -8097,7 +8101,7 @@
       </c>
       <c r="D25" s="22">
         <f>SUM(Student3!D25,Student1!D25,Student2!D25,Student4!D25,Student5!D25,Student6!D25)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E25" s="22">
         <f>SUM(Student3!E25,Student1!E25,Student2!E25,Student4!E25,Student5!E25,Student6!E25)</f>
@@ -8133,7 +8137,7 @@
       </c>
       <c r="M25" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="N25" s="36" t="str">
         <f>IF(INDEX(Tasks,20,3)&lt;&gt;"",100*M25/INDEX(Tasks,20,3),"")</f>
@@ -8835,7 +8839,7 @@
       </c>
       <c r="D43" s="17">
         <f>Student1!D38</f>
-        <v>0.2729166666666667</v>
+        <v>0.43958333333333333</v>
       </c>
       <c r="E43" s="17">
         <f>Student1!E38</f>
@@ -8871,7 +8875,7 @@
       </c>
       <c r="M43" s="26">
         <f t="shared" ref="M43:M48" si="2">SUM(C43:L43)</f>
-        <v>0.48125000000000001</v>
+        <v>0.6479166666666667</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Things we have to hand in weekly/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
+++ b/Things we have to hand in weekly/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20181903\Documents\GitHub\DBLVis\Things we have to hand in weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20181751\OneDrive - TU Eindhoven\Documents\GitHub\DBLVis\Things we have to hand in weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FE6243-95DA-449E-807C-7BC08BE40BCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7512836-5BD3-401D-BAA6-9F5972E729C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20916" windowHeight="6072" tabRatio="761" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20916" windowHeight="6072" tabRatio="761" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -856,7 +856,7 @@
                   <c:v>0.6479166666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7416666666666667</c:v>
+                  <c:v>0.96736111111111112</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.35625000000000001</c:v>
@@ -909,7 +909,7 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="400337368"/>
@@ -1333,10 +1333,10 @@
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -1348,19 +1348,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>1.3888888888888888E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>3.472222222222222E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -1418,7 +1418,7 @@
           <a:pPr rtl="0">
             <a:defRPr sz="700"/>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2312,7 +2312,7 @@
   </sheetPr>
   <dimension ref="A2:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -3099,8 +3099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Q43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3519,7 +3519,9 @@
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="E26" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
@@ -3535,7 +3537,9 @@
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="E27" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
@@ -3604,7 +3608,9 @@
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
+      <c r="E31" s="17">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
@@ -3625,7 +3631,9 @@
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="E32" s="17">
+        <v>3.472222222222222E-3</v>
+      </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
@@ -3641,7 +3649,9 @@
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="E33" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
@@ -3657,7 +3667,9 @@
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+      <c r="E34" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
@@ -3673,7 +3685,9 @@
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
@@ -3725,7 +3739,7 @@
       </c>
       <c r="E38" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="F38" s="21">
         <f t="shared" si="0"/>
@@ -3782,35 +3796,35 @@
       </c>
       <c r="E40" s="18">
         <f>SUM($C$38:E38)</f>
-        <v>0.7416666666666667</v>
+        <v>0.96736111111111112</v>
       </c>
       <c r="F40" s="18">
         <f>SUM($C$38:F38)</f>
-        <v>0.7416666666666667</v>
+        <v>0.96736111111111112</v>
       </c>
       <c r="G40" s="18">
         <f>SUM($C$38:G38)</f>
-        <v>0.7416666666666667</v>
+        <v>0.96736111111111112</v>
       </c>
       <c r="H40" s="18">
         <f>SUM($C$38:H38)</f>
-        <v>0.7416666666666667</v>
+        <v>0.96736111111111112</v>
       </c>
       <c r="I40" s="18">
         <f>SUM($C$38:I38)</f>
-        <v>0.7416666666666667</v>
+        <v>0.96736111111111112</v>
       </c>
       <c r="J40" s="18">
         <f>SUM($C$38:J38)</f>
-        <v>0.7416666666666667</v>
+        <v>0.96736111111111112</v>
       </c>
       <c r="K40" s="18">
         <f>SUM($C$38:K38)</f>
-        <v>0.7416666666666667</v>
+        <v>0.96736111111111112</v>
       </c>
       <c r="L40" s="18">
         <f>SUM($C$38:L38)</f>
-        <v>0.7416666666666667</v>
+        <v>0.96736111111111112</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
@@ -3827,35 +3841,35 @@
       </c>
       <c r="E41" s="18">
         <f>Parameters!$G$6-E40</f>
-        <v>5.0916666666666668</v>
+        <v>4.8659722222222221</v>
       </c>
       <c r="F41" s="18">
         <f>Parameters!$G$6-F40</f>
-        <v>5.0916666666666668</v>
+        <v>4.8659722222222221</v>
       </c>
       <c r="G41" s="18">
         <f>Parameters!$G$6-G40</f>
-        <v>5.0916666666666668</v>
+        <v>4.8659722222222221</v>
       </c>
       <c r="H41" s="18">
         <f>Parameters!$G$6-H40</f>
-        <v>5.0916666666666668</v>
+        <v>4.8659722222222221</v>
       </c>
       <c r="I41" s="18">
         <f>Parameters!$G$6-I40</f>
-        <v>5.0916666666666668</v>
+        <v>4.8659722222222221</v>
       </c>
       <c r="J41" s="18">
         <f>Parameters!$G$6-J40</f>
-        <v>5.0916666666666668</v>
+        <v>4.8659722222222221</v>
       </c>
       <c r="K41" s="18">
         <f>Parameters!$G$6-K40</f>
-        <v>5.0916666666666668</v>
+        <v>4.8659722222222221</v>
       </c>
       <c r="L41" s="18">
         <f>Parameters!$G$6-L40</f>
-        <v>5.0916666666666668</v>
+        <v>4.8659722222222221</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
@@ -8159,7 +8173,7 @@
       </c>
       <c r="E26" s="22">
         <f>SUM(Student3!E26,Student1!E26,Student2!E26,Student4!E26,Student5!E26,Student6!E26)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F26" s="22">
         <f>SUM(Student3!F26,Student1!F26,Student2!F26,Student4!F26,Student5!F26,Student6!F26)</f>
@@ -8191,11 +8205,11 @@
       </c>
       <c r="M26" s="35">
         <f t="shared" ref="M26:M37" si="1">SUM(C26:L26)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="N26" s="7">
         <f>IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M26/INDEX(Tasks,1,3),"")</f>
-        <v>0</v>
+        <v>49.999999999999993</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
@@ -8213,7 +8227,7 @@
       </c>
       <c r="E27" s="22">
         <f>SUM(Student3!E27,Student1!E27,Student2!E27,Student4!E27,Student5!E27,Student6!E27)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="F27" s="22">
         <f>SUM(Student3!F27,Student1!F27,Student2!F27,Student4!F27,Student5!F27,Student6!F27)</f>
@@ -8245,11 +8259,11 @@
       </c>
       <c r="M27" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="N27" s="7">
         <f>IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M27/INDEX(Tasks,2,3),"")</f>
-        <v>0</v>
+        <v>12.499999999999998</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
@@ -8429,7 +8443,7 @@
       </c>
       <c r="E31" s="22">
         <f>SUM(Student3!E31,Student1!E31,Student2!E31,Student4!E31,Student5!E31,Student6!E31)</f>
-        <v>0</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="F31" s="22">
         <f>SUM(Student3!F31,Student1!F31,Student2!F31,Student4!F31,Student5!F31,Student6!F31)</f>
@@ -8461,11 +8475,11 @@
       </c>
       <c r="M31" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="N31" s="7">
         <f>IF(INDEX(Tasks,6,3)&lt;&gt;"",100*M31/INDEX(Tasks,6,3),"")</f>
-        <v>0</v>
+        <v>4.0749796251018738E-2</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
@@ -8483,7 +8497,7 @@
       </c>
       <c r="E32" s="22">
         <f>SUM(Student3!E32,Student1!E32,Student2!E32,Student4!E32,Student5!E32,Student6!E32)</f>
-        <v>0</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="F32" s="22">
         <f>SUM(Student3!F32,Student1!F32,Student2!F32,Student4!F32,Student5!F32,Student6!F32)</f>
@@ -8515,7 +8529,7 @@
       </c>
       <c r="M32" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="N32" s="7" t="str">
         <f>IF(INDEX(Tasks,7,3)&lt;&gt;"",100*M32/INDEX(Tasks,7,3),"")</f>
@@ -8537,7 +8551,7 @@
       </c>
       <c r="E33" s="22">
         <f>SUM(Student3!E33,Student1!E33,Student2!E33,Student4!E33,Student5!E33,Student6!E33)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="F33" s="22">
         <f>SUM(Student3!F33,Student1!F33,Student2!F33,Student4!F33,Student5!F33,Student6!F33)</f>
@@ -8569,7 +8583,7 @@
       </c>
       <c r="M33" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="N33" s="7" t="str">
         <f>IF(INDEX(Tasks,8,3)&lt;&gt;"",100*M33/INDEX(Tasks,8,3),"")</f>
@@ -8591,7 +8605,7 @@
       </c>
       <c r="E34" s="22">
         <f>SUM(Student3!E34,Student1!E34,Student2!E34,Student4!E34,Student5!E34,Student6!E34)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="F34" s="22">
         <f>SUM(Student3!F34,Student1!F34,Student2!F34,Student4!F34,Student5!F34,Student6!F34)</f>
@@ -8623,7 +8637,7 @@
       </c>
       <c r="M34" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="N34" s="7" t="str">
         <f>IF(INDEX(Tasks,9,3)&lt;&gt;"",100*M34/INDEX(Tasks,9,3),"")</f>
@@ -8645,7 +8659,7 @@
       </c>
       <c r="E35" s="22">
         <f>SUM(Student3!E35,Student1!E35,Student2!E35,Student4!E35,Student5!E35,Student6!E35)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="F35" s="22">
         <f>SUM(Student3!F35,Student1!F35,Student2!F35,Student4!F35,Student5!F35,Student6!F35)</f>
@@ -8677,7 +8691,7 @@
       </c>
       <c r="M35" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="N35" s="7" t="str">
         <f>IF(INDEX(Tasks,10,3)&lt;&gt;"",100*M35/INDEX(Tasks,10,3),"")</f>
@@ -8893,7 +8907,7 @@
       </c>
       <c r="E44" s="17">
         <f>Student2!E38</f>
-        <v>0</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="F44" s="17">
         <f>Student2!F38</f>
@@ -8925,7 +8939,7 @@
       </c>
       <c r="M44" s="26">
         <f t="shared" si="2"/>
-        <v>0.7416666666666667</v>
+        <v>0.96736111111111112</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Things we have to hand in weekly/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
+++ b/Things we have to hand in weekly/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20181751\OneDrive - TU Eindhoven\Documents\GitHub\DBLVis\Things we have to hand in weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20182623\Documents\GitHub\DBLVis\Things we have to hand in weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7512836-5BD3-401D-BAA6-9F5972E729C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D878146A-403D-4E3E-810F-C82438C2DD32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20916" windowHeight="6072" tabRatio="761" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20910" windowHeight="6075" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -853,22 +853,22 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.6479166666666667</c:v>
+                  <c:v>0.6791666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96736111111111112</c:v>
+                  <c:v>0.99861111111111112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35625000000000001</c:v>
+                  <c:v>0.38750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.48124999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23125000000000001</c:v>
+                  <c:v>0.26250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29722222222222217</c:v>
+                  <c:v>0.32847222222222217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,7 +909,7 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="400337368"/>
@@ -1273,10 +1273,10 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0.11666666666666667</c:v>
+                  <c:v>0.24513888888888891</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0833333333333336E-2</c:v>
+                  <c:v>4.8611111111111119E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1418,7 +1418,7 @@
           <a:pPr rtl="0">
             <a:defRPr sz="700"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1879,22 +1879,22 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C12" s="27"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="C13" s="27"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="C14" s="27"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="C15" s="27"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="C16" s="27"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C17" s="27"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="C18" s="27"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="C19" s="27"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="C20" s="27"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="C21" s="27"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C22" s="27"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="C23" s="27"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="C24" s="27"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>79</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="C25" s="27"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>80</v>
       </c>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="C26" s="27"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>81</v>
       </c>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C27" s="27"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>82</v>
       </c>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="C28" s="27"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C29" s="27"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="C30" s="27"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>85</v>
       </c>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="C31" s="27"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>86</v>
       </c>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C32" s="27"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>87</v>
       </c>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="C33" s="27"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>88</v>
       </c>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C34" s="27"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>89</v>
       </c>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="C35" s="27"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>90</v>
       </c>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="C36" s="27"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>52</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
         <v>51</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
     </row>
   </sheetData>
@@ -2313,16 +2313,16 @@
   <dimension ref="A2:Q43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>Frederik Ondrikov</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
@@ -2381,7 +2381,7 @@
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -2390,7 +2390,9 @@
       <c r="D6" s="17">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="17">
+        <v>2.5694444444444447E-2</v>
+      </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -2399,7 +2401,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -2408,7 +2410,9 @@
       <c r="D7" s="17">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="17">
+        <v>5.5555555555555558E-3</v>
+      </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -2417,7 +2421,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -2433,7 +2437,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -2449,7 +2453,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -2467,7 +2471,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -2485,7 +2489,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
@@ -2503,7 +2507,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -2519,7 +2523,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v>Submit button --&gt; one file at the time</v>
@@ -2537,7 +2541,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
         <v>Layout (simple)</v>
@@ -2553,7 +2557,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Client or server? --&gt; research tutor</v>
@@ -2569,7 +2573,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Html file</v>
@@ -2585,7 +2589,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Retrieve data from upload file</v>
@@ -2601,7 +2605,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Look into libraries</v>
@@ -2619,7 +2623,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Research the data files</v>
@@ -2635,7 +2639,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Look into node links and adjacency matrix</v>
@@ -2653,7 +2657,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Research node.js</v>
@@ -2669,7 +2673,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Make a github</v>
@@ -2685,7 +2689,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Make the meeting digital</v>
@@ -2701,7 +2705,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Submit button --&gt; fix errors</v>
@@ -2719,7 +2723,7 @@
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f>INDEX(Parameters!A5:C36,21,2)</f>
         <v>Make 2nd page for visualisations</v>
@@ -2735,7 +2739,7 @@
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f>INDEX(Parameters!A5:C36,22,2)</f>
         <v>Website design</v>
@@ -2751,7 +2755,7 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f>INDEX(Parameters!A7:C38,21,2)</f>
         <v>Make adjacency visualisations</v>
@@ -2767,7 +2771,7 @@
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
         <f>INDEX(Parameters!A7:C38,22,2)</f>
         <v>Make nodelink visualisations</v>
@@ -2783,7 +2787,7 @@
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
         <f>INDEX(Parameters!A9:C40,21,2)</f>
         <v>Make a list of libraries</v>
@@ -2804,7 +2808,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
         <f>INDEX(Parameters!A9:C40,22,2)</f>
         <v>Learn github</v>
@@ -2825,7 +2829,7 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
         <f>INDEX(Parameters!A11:C42,21,2)</f>
         <v>Update working hours</v>
@@ -2841,7 +2845,7 @@
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
         <f>INDEX(Parameters!A11:C42,22,2)</f>
         <v>Update excel</v>
@@ -2857,7 +2861,7 @@
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
         <f>INDEX(Parameters!A13:C44,21,2)</f>
         <v>Learn JavaScript</v>
@@ -2873,7 +2877,7 @@
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
         <f>INDEX(Parameters!A13:C44,22,2)</f>
         <v>Uploaded page</v>
@@ -2889,7 +2893,7 @@
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f>INDEX(Parameters!A15:C46,21,2)</f>
         <v>Parsing</v>
@@ -2905,7 +2909,7 @@
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
     </row>
-    <row r="37" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" t="str">
         <f>INDEX(Parameters!A15:C46,22,2)</f>
         <v>Backlog into excel</v>
@@ -2921,7 +2925,7 @@
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
     </row>
-    <row r="38" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="21">
         <f>SUM(C6:C37)</f>
         <v>0.20833333333333331</v>
@@ -2932,7 +2936,7 @@
       </c>
       <c r="E38" s="21">
         <f t="shared" ref="E38:L38" si="0">SUM(E6:E37)</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F38" s="21">
         <f t="shared" si="0"/>
@@ -2963,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
@@ -2975,7 +2979,7 @@
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>31</v>
       </c>
@@ -2989,38 +2993,38 @@
       </c>
       <c r="E40" s="18">
         <f>SUM($C$38:E38)</f>
-        <v>0.6479166666666667</v>
+        <v>0.6791666666666667</v>
       </c>
       <c r="F40" s="18">
         <f>SUM($C$38:F38)</f>
-        <v>0.6479166666666667</v>
+        <v>0.6791666666666667</v>
       </c>
       <c r="G40" s="18">
         <f>SUM($C$38:G38)</f>
-        <v>0.6479166666666667</v>
+        <v>0.6791666666666667</v>
       </c>
       <c r="H40" s="18">
         <f>SUM($C$38:H38)</f>
-        <v>0.6479166666666667</v>
+        <v>0.6791666666666667</v>
       </c>
       <c r="I40" s="18">
         <f>SUM($C$38:I38)</f>
-        <v>0.6479166666666667</v>
+        <v>0.6791666666666667</v>
       </c>
       <c r="J40" s="18">
         <f>SUM($C$38:J38)</f>
-        <v>0.6479166666666667</v>
+        <v>0.6791666666666667</v>
       </c>
       <c r="K40" s="18">
         <f>SUM($C$38:K38)</f>
-        <v>0.6479166666666667</v>
+        <v>0.6791666666666667</v>
       </c>
       <c r="L40" s="18">
         <f>SUM($C$38:L38)</f>
-        <v>0.6479166666666667</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+        <v>0.6791666666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>32</v>
       </c>
@@ -3034,38 +3038,38 @@
       </c>
       <c r="E41" s="18">
         <f>Parameters!$G$5-E40</f>
-        <v>5.1854166666666668</v>
+        <v>5.1541666666666668</v>
       </c>
       <c r="F41" s="18">
         <f>Parameters!$G$5-F40</f>
-        <v>5.1854166666666668</v>
+        <v>5.1541666666666668</v>
       </c>
       <c r="G41" s="18">
         <f>Parameters!$G$5-G40</f>
-        <v>5.1854166666666668</v>
+        <v>5.1541666666666668</v>
       </c>
       <c r="H41" s="18">
         <f>Parameters!$G$5-H40</f>
-        <v>5.1854166666666668</v>
+        <v>5.1541666666666668</v>
       </c>
       <c r="I41" s="18">
         <f>Parameters!$G$5-I40</f>
-        <v>5.1854166666666668</v>
+        <v>5.1541666666666668</v>
       </c>
       <c r="J41" s="18">
         <f>Parameters!$G$5-J40</f>
-        <v>5.1854166666666668</v>
+        <v>5.1541666666666668</v>
       </c>
       <c r="K41" s="18">
         <f>Parameters!$G$5-K40</f>
-        <v>5.1854166666666668</v>
+        <v>5.1541666666666668</v>
       </c>
       <c r="L41" s="18">
         <f>Parameters!$G$5-L40</f>
-        <v>5.1854166666666668</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+        <v>5.1541666666666668</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -3077,7 +3081,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -3099,17 +3103,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -3118,7 +3122,7 @@
         <v>Tessa van Beers</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
@@ -3153,7 +3157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
@@ -3168,7 +3172,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -3177,7 +3181,9 @@
       <c r="D6" s="17">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="17">
+        <v>2.5694444444444447E-2</v>
+      </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -3186,7 +3192,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -3195,7 +3201,9 @@
       <c r="D7" s="17">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="17">
+        <v>5.5555555555555558E-3</v>
+      </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -3204,7 +3212,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -3220,7 +3228,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -3236,7 +3244,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -3254,7 +3262,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -3270,7 +3278,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
@@ -3288,7 +3296,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -3306,7 +3314,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v>Submit button --&gt; one file at the time</v>
@@ -3322,7 +3330,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
         <v>Layout (simple)</v>
@@ -3340,7 +3348,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Client or server? --&gt; research tutor</v>
@@ -3356,7 +3364,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Html file</v>
@@ -3374,7 +3382,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Retrieve data from upload file</v>
@@ -3390,7 +3398,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Look into libraries</v>
@@ -3408,7 +3416,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Research the data files</v>
@@ -3424,7 +3432,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Look into node links and adjacency matrix</v>
@@ -3442,7 +3450,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Research node.js</v>
@@ -3460,7 +3468,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Make a github</v>
@@ -3476,7 +3484,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Make the meeting digital</v>
@@ -3496,7 +3504,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Submit button --&gt; fix errors</v>
@@ -3512,7 +3520,7 @@
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f>INDEX(Parameters!A5:C36,21,2)</f>
         <v>Make 2nd page for visualisations</v>
@@ -3530,7 +3538,7 @@
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f>INDEX(Parameters!A5:C36,22,2)</f>
         <v>Website design</v>
@@ -3548,7 +3556,7 @@
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f>INDEX(Parameters!A7:C38,21,2)</f>
         <v>Make adjacency visualisations</v>
@@ -3564,7 +3572,7 @@
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
         <f>INDEX(Parameters!A7:C38,22,2)</f>
         <v>Make nodelink visualisations</v>
@@ -3580,7 +3588,7 @@
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
         <f>INDEX(Parameters!A9:C40,21,2)</f>
         <v>Make a list of libraries</v>
@@ -3601,7 +3609,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
         <f>INDEX(Parameters!A9:C40,22,2)</f>
         <v>Learn github</v>
@@ -3624,7 +3632,7 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
         <f>INDEX(Parameters!A11:C42,21,2)</f>
         <v>Update working hours</v>
@@ -3642,7 +3650,7 @@
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
         <f>INDEX(Parameters!A11:C42,22,2)</f>
         <v>Update excel</v>
@@ -3660,7 +3668,7 @@
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
         <f>INDEX(Parameters!A13:C44,21,2)</f>
         <v>Learn JavaScript</v>
@@ -3678,7 +3686,7 @@
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
         <f>INDEX(Parameters!A13:C44,22,2)</f>
         <v>Uploaded page</v>
@@ -3696,7 +3704,7 @@
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f>INDEX(Parameters!A15:C46,21,2)</f>
         <v>Parsing</v>
@@ -3712,7 +3720,7 @@
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
     </row>
-    <row r="37" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" t="str">
         <f>INDEX(Parameters!A15:C46,22,2)</f>
         <v>Backlog into excel</v>
@@ -3728,7 +3736,7 @@
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
     </row>
-    <row r="38" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="21">
         <f>SUM(C6:C37)</f>
         <v>0.38541666666666663</v>
@@ -3739,7 +3747,7 @@
       </c>
       <c r="E38" s="21">
         <f t="shared" si="0"/>
-        <v>0.22569444444444445</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="F38" s="21">
         <f t="shared" si="0"/>
@@ -3770,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
@@ -3782,7 +3790,7 @@
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>31</v>
       </c>
@@ -3796,38 +3804,38 @@
       </c>
       <c r="E40" s="18">
         <f>SUM($C$38:E38)</f>
-        <v>0.96736111111111112</v>
+        <v>0.99861111111111112</v>
       </c>
       <c r="F40" s="18">
         <f>SUM($C$38:F38)</f>
-        <v>0.96736111111111112</v>
+        <v>0.99861111111111112</v>
       </c>
       <c r="G40" s="18">
         <f>SUM($C$38:G38)</f>
-        <v>0.96736111111111112</v>
+        <v>0.99861111111111112</v>
       </c>
       <c r="H40" s="18">
         <f>SUM($C$38:H38)</f>
-        <v>0.96736111111111112</v>
+        <v>0.99861111111111112</v>
       </c>
       <c r="I40" s="18">
         <f>SUM($C$38:I38)</f>
-        <v>0.96736111111111112</v>
+        <v>0.99861111111111112</v>
       </c>
       <c r="J40" s="18">
         <f>SUM($C$38:J38)</f>
-        <v>0.96736111111111112</v>
+        <v>0.99861111111111112</v>
       </c>
       <c r="K40" s="18">
         <f>SUM($C$38:K38)</f>
-        <v>0.96736111111111112</v>
+        <v>0.99861111111111112</v>
       </c>
       <c r="L40" s="18">
         <f>SUM($C$38:L38)</f>
-        <v>0.96736111111111112</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+        <v>0.99861111111111112</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>32</v>
       </c>
@@ -3841,38 +3849,38 @@
       </c>
       <c r="E41" s="18">
         <f>Parameters!$G$6-E40</f>
-        <v>4.8659722222222221</v>
+        <v>4.8347222222222221</v>
       </c>
       <c r="F41" s="18">
         <f>Parameters!$G$6-F40</f>
-        <v>4.8659722222222221</v>
+        <v>4.8347222222222221</v>
       </c>
       <c r="G41" s="18">
         <f>Parameters!$G$6-G40</f>
-        <v>4.8659722222222221</v>
+        <v>4.8347222222222221</v>
       </c>
       <c r="H41" s="18">
         <f>Parameters!$G$6-H40</f>
-        <v>4.8659722222222221</v>
+        <v>4.8347222222222221</v>
       </c>
       <c r="I41" s="18">
         <f>Parameters!$G$6-I40</f>
-        <v>4.8659722222222221</v>
+        <v>4.8347222222222221</v>
       </c>
       <c r="J41" s="18">
         <f>Parameters!$G$6-J40</f>
-        <v>4.8659722222222221</v>
+        <v>4.8347222222222221</v>
       </c>
       <c r="K41" s="18">
         <f>Parameters!$G$6-K40</f>
-        <v>4.8659722222222221</v>
+        <v>4.8347222222222221</v>
       </c>
       <c r="L41" s="18">
         <f>Parameters!$G$6-L40</f>
-        <v>4.8659722222222221</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+        <v>4.8347222222222221</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -3884,7 +3892,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -3905,18 +3913,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:Q43"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -3925,7 +3933,7 @@
         <v>Bas Gerritsen</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
@@ -3960,7 +3968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
@@ -3975,7 +3983,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -3984,7 +3992,9 @@
       <c r="D6" s="17">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="17">
+        <v>2.5694444444444447E-2</v>
+      </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -3993,7 +4003,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -4002,7 +4012,9 @@
       <c r="D7" s="17">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="17">
+        <v>5.5555555555555558E-3</v>
+      </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -4011,7 +4023,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -4027,7 +4039,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -4043,7 +4055,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -4061,7 +4073,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -4077,7 +4089,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
@@ -4095,7 +4107,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -4111,7 +4123,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v>Submit button --&gt; one file at the time</v>
@@ -4127,7 +4139,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
         <v>Layout (simple)</v>
@@ -4143,7 +4155,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Client or server? --&gt; research tutor</v>
@@ -4159,7 +4171,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Html file</v>
@@ -4175,7 +4187,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Retrieve data from upload file</v>
@@ -4191,7 +4203,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Look into libraries</v>
@@ -4207,7 +4219,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Research the data files</v>
@@ -4223,7 +4235,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Look into node links and adjacency matrix</v>
@@ -4239,7 +4251,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Research node.js</v>
@@ -4255,7 +4267,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Make a github</v>
@@ -4271,7 +4283,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Make the meeting digital</v>
@@ -4287,7 +4299,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Submit button --&gt; fix errors</v>
@@ -4303,7 +4315,7 @@
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f>INDEX(Parameters!A5:C36,21,2)</f>
         <v>Make 2nd page for visualisations</v>
@@ -4319,7 +4331,7 @@
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f>INDEX(Parameters!A5:C36,22,2)</f>
         <v>Website design</v>
@@ -4335,7 +4347,7 @@
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f>INDEX(Parameters!A7:C38,21,2)</f>
         <v>Make adjacency visualisations</v>
@@ -4351,7 +4363,7 @@
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
         <f>INDEX(Parameters!A7:C38,22,2)</f>
         <v>Make nodelink visualisations</v>
@@ -4367,7 +4379,7 @@
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
         <f>INDEX(Parameters!A9:C40,21,2)</f>
         <v>Make a list of libraries</v>
@@ -4388,7 +4400,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
         <f>INDEX(Parameters!A9:C40,22,2)</f>
         <v>Learn github</v>
@@ -4409,7 +4421,7 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
         <f>INDEX(Parameters!A11:C42,21,2)</f>
         <v>Update working hours</v>
@@ -4425,7 +4437,7 @@
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
         <f>INDEX(Parameters!A11:C42,22,2)</f>
         <v>Update excel</v>
@@ -4441,7 +4453,7 @@
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
         <f>INDEX(Parameters!A13:C44,21,2)</f>
         <v>Learn JavaScript</v>
@@ -4457,7 +4469,7 @@
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
         <f>INDEX(Parameters!A13:C44,22,2)</f>
         <v>Uploaded page</v>
@@ -4473,7 +4485,7 @@
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f>INDEX(Parameters!A15:C46,21,2)</f>
         <v>Parsing</v>
@@ -4489,7 +4501,7 @@
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
     </row>
-    <row r="37" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" t="str">
         <f>INDEX(Parameters!A15:C46,22,2)</f>
         <v>Backlog into excel</v>
@@ -4505,7 +4517,7 @@
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
     </row>
-    <row r="38" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="21">
         <f>SUM(C6:C37)</f>
         <v>8.3333333333333329E-2</v>
@@ -4516,7 +4528,7 @@
       </c>
       <c r="E38" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F38" s="21">
         <f t="shared" si="0"/>
@@ -4547,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
@@ -4559,7 +4571,7 @@
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>31</v>
       </c>
@@ -4573,38 +4585,38 @@
       </c>
       <c r="E40" s="18">
         <f>SUM($C$38:E38)</f>
-        <v>0.35625000000000001</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="F40" s="18">
         <f>SUM($C$38:F38)</f>
-        <v>0.35625000000000001</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="G40" s="18">
         <f>SUM($C$38:G38)</f>
-        <v>0.35625000000000001</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="H40" s="18">
         <f>SUM($C$38:H38)</f>
-        <v>0.35625000000000001</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="I40" s="18">
         <f>SUM($C$38:I38)</f>
-        <v>0.35625000000000001</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="J40" s="18">
         <f>SUM($C$38:J38)</f>
-        <v>0.35625000000000001</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="K40" s="18">
         <f>SUM($C$38:K38)</f>
-        <v>0.35625000000000001</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="L40" s="18">
         <f>SUM($C$38:L38)</f>
-        <v>0.35625000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>32</v>
       </c>
@@ -4618,38 +4630,38 @@
       </c>
       <c r="E41" s="18">
         <f>Parameters!$G$7-E40</f>
-        <v>5.4770833333333329</v>
+        <v>5.4458333333333329</v>
       </c>
       <c r="F41" s="18">
         <f>Parameters!$G$7-F40</f>
-        <v>5.4770833333333329</v>
+        <v>5.4458333333333329</v>
       </c>
       <c r="G41" s="18">
         <f>Parameters!$G$7-G40</f>
-        <v>5.4770833333333329</v>
+        <v>5.4458333333333329</v>
       </c>
       <c r="H41" s="18">
         <f>Parameters!$G$7-H40</f>
-        <v>5.4770833333333329</v>
+        <v>5.4458333333333329</v>
       </c>
       <c r="I41" s="18">
         <f>Parameters!$G$7-I40</f>
-        <v>5.4770833333333329</v>
+        <v>5.4458333333333329</v>
       </c>
       <c r="J41" s="18">
         <f>Parameters!$G$7-J40</f>
-        <v>5.4770833333333329</v>
+        <v>5.4458333333333329</v>
       </c>
       <c r="K41" s="18">
         <f>Parameters!$G$7-K40</f>
-        <v>5.4770833333333329</v>
+        <v>5.4458333333333329</v>
       </c>
       <c r="L41" s="18">
         <f>Parameters!$G$7-L40</f>
-        <v>5.4770833333333329</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+        <v>5.4458333333333329</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -4661,7 +4673,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -4683,17 +4695,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:Q43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -4702,7 +4714,7 @@
         <v>Jay Benedicto</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
@@ -4737,7 +4749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
@@ -4752,7 +4764,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -4770,7 +4782,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -4788,7 +4800,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -4804,7 +4816,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -4820,7 +4832,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -4840,7 +4852,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -4856,7 +4868,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
@@ -4874,7 +4886,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -4890,7 +4902,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v>Submit button --&gt; one file at the time</v>
@@ -4906,7 +4918,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
         <v>Layout (simple)</v>
@@ -4922,7 +4934,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Client or server? --&gt; research tutor</v>
@@ -4938,7 +4950,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Html file</v>
@@ -4954,7 +4966,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Retrieve data from upload file</v>
@@ -4970,7 +4982,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Look into libraries</v>
@@ -4986,7 +4998,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Research the data files</v>
@@ -5002,7 +5014,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Look into node links and adjacency matrix</v>
@@ -5018,7 +5030,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Research node.js</v>
@@ -5034,7 +5046,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Make a github</v>
@@ -5050,7 +5062,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Make the meeting digital</v>
@@ -5066,7 +5078,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Submit button --&gt; fix errors</v>
@@ -5082,7 +5094,7 @@
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f>INDEX(Parameters!A5:C36,21,2)</f>
         <v>Make 2nd page for visualisations</v>
@@ -5098,7 +5110,7 @@
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f>INDEX(Parameters!A5:C36,22,2)</f>
         <v>Website design</v>
@@ -5114,7 +5126,7 @@
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f>INDEX(Parameters!A7:C38,21,2)</f>
         <v>Make adjacency visualisations</v>
@@ -5130,7 +5142,7 @@
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
         <f>INDEX(Parameters!A7:C38,22,2)</f>
         <v>Make nodelink visualisations</v>
@@ -5146,7 +5158,7 @@
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
         <f>INDEX(Parameters!A9:C40,21,2)</f>
         <v>Make a list of libraries</v>
@@ -5167,7 +5179,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
         <f>INDEX(Parameters!A9:C40,22,2)</f>
         <v>Learn github</v>
@@ -5188,7 +5200,7 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
         <f>INDEX(Parameters!A11:C42,21,2)</f>
         <v>Update working hours</v>
@@ -5204,7 +5216,7 @@
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
         <f>INDEX(Parameters!A11:C42,22,2)</f>
         <v>Update excel</v>
@@ -5220,7 +5232,7 @@
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
         <f>INDEX(Parameters!A13:C44,21,2)</f>
         <v>Learn JavaScript</v>
@@ -5236,7 +5248,7 @@
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
         <f>INDEX(Parameters!A13:C44,22,2)</f>
         <v>Uploaded page</v>
@@ -5252,7 +5264,7 @@
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f>INDEX(Parameters!A15:C46,21,2)</f>
         <v>Parsing</v>
@@ -5268,7 +5280,7 @@
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
     </row>
-    <row r="37" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" t="str">
         <f>INDEX(Parameters!A15:C46,22,2)</f>
         <v>Backlog into excel</v>
@@ -5284,7 +5296,7 @@
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
     </row>
-    <row r="38" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="21">
         <f>SUM(C6:C37)</f>
         <v>0.33333333333333331</v>
@@ -5326,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
@@ -5338,7 +5350,7 @@
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>31</v>
       </c>
@@ -5383,7 +5395,7 @@
         <v>0.48124999999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>32</v>
       </c>
@@ -5428,7 +5440,7 @@
         <v>5.3520833333333329</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -5440,7 +5452,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -5461,17 +5473,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:Q43"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:L38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -5480,7 +5492,7 @@
         <v>Lyuben Petrov</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
@@ -5515,7 +5527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
@@ -5530,7 +5542,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -5539,7 +5551,9 @@
       <c r="D6" s="17">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="17">
+        <v>2.5694444444444447E-2</v>
+      </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -5548,7 +5562,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -5557,7 +5571,9 @@
       <c r="D7" s="17">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="17">
+        <v>5.5555555555555558E-3</v>
+      </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -5566,7 +5582,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -5582,7 +5598,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -5598,7 +5614,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -5614,7 +5630,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -5630,7 +5646,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
@@ -5648,7 +5664,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -5664,7 +5680,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v>Submit button --&gt; one file at the time</v>
@@ -5680,7 +5696,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
         <v>Layout (simple)</v>
@@ -5696,7 +5712,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Client or server? --&gt; research tutor</v>
@@ -5712,7 +5728,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Html file</v>
@@ -5728,7 +5744,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Retrieve data from upload file</v>
@@ -5744,7 +5760,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Look into libraries</v>
@@ -5760,7 +5776,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Research the data files</v>
@@ -5776,7 +5792,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Look into node links and adjacency matrix</v>
@@ -5792,7 +5808,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Research node.js</v>
@@ -5808,7 +5824,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Make a github</v>
@@ -5824,7 +5840,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Make the meeting digital</v>
@@ -5840,7 +5856,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Submit button --&gt; fix errors</v>
@@ -5856,7 +5872,7 @@
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f>INDEX(Parameters!A5:C36,21,2)</f>
         <v>Make 2nd page for visualisations</v>
@@ -5872,7 +5888,7 @@
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f>INDEX(Parameters!A5:C36,22,2)</f>
         <v>Website design</v>
@@ -5888,7 +5904,7 @@
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f>INDEX(Parameters!A7:C38,21,2)</f>
         <v>Make adjacency visualisations</v>
@@ -5904,7 +5920,7 @@
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
         <f>INDEX(Parameters!A7:C38,22,2)</f>
         <v>Make nodelink visualisations</v>
@@ -5920,7 +5936,7 @@
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
         <f>INDEX(Parameters!A9:C40,21,2)</f>
         <v>Make a list of libraries</v>
@@ -5941,7 +5957,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
         <f>INDEX(Parameters!A9:C40,22,2)</f>
         <v>Learn github</v>
@@ -5962,7 +5978,7 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
         <f>INDEX(Parameters!A11:C42,21,2)</f>
         <v>Update working hours</v>
@@ -5978,7 +5994,7 @@
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
         <f>INDEX(Parameters!A11:C42,22,2)</f>
         <v>Update excel</v>
@@ -5994,7 +6010,7 @@
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
         <f>INDEX(Parameters!A13:C44,21,2)</f>
         <v>Learn JavaScript</v>
@@ -6010,7 +6026,7 @@
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
         <f>INDEX(Parameters!A13:C44,22,2)</f>
         <v>Uploaded page</v>
@@ -6026,7 +6042,7 @@
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f>INDEX(Parameters!A15:C46,21,2)</f>
         <v>Parsing</v>
@@ -6042,7 +6058,7 @@
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
     </row>
-    <row r="37" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" t="str">
         <f>INDEX(Parameters!A15:C46,22,2)</f>
         <v>Backlog into excel</v>
@@ -6058,7 +6074,7 @@
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
     </row>
-    <row r="38" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C38" s="20">
         <f>SUM(C6:C37)</f>
         <v>0</v>
@@ -6069,7 +6085,7 @@
       </c>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F38" s="20">
         <f t="shared" si="0"/>
@@ -6100,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
@@ -6112,7 +6128,7 @@
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>31</v>
       </c>
@@ -6126,38 +6142,38 @@
       </c>
       <c r="E40" s="18">
         <f>SUM($C$38:E38)</f>
-        <v>0.23125000000000001</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="F40" s="18">
         <f>SUM($C$38:F38)</f>
-        <v>0.23125000000000001</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="G40" s="18">
         <f>SUM($C$38:G38)</f>
-        <v>0.23125000000000001</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="H40" s="18">
         <f>SUM($C$38:H38)</f>
-        <v>0.23125000000000001</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="I40" s="18">
         <f>SUM($C$38:I38)</f>
-        <v>0.23125000000000001</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="J40" s="18">
         <f>SUM($C$38:J38)</f>
-        <v>0.23125000000000001</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="K40" s="18">
         <f>SUM($C$38:K38)</f>
-        <v>0.23125000000000001</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="L40" s="18">
         <f>SUM($C$38:L38)</f>
-        <v>0.23125000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+        <v>0.26250000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>32</v>
       </c>
@@ -6171,38 +6187,38 @@
       </c>
       <c r="E41" s="18">
         <f>Parameters!$G$9-E40</f>
-        <v>5.6020833333333329</v>
+        <v>5.5708333333333329</v>
       </c>
       <c r="F41" s="18">
         <f>Parameters!$G$9-F40</f>
-        <v>5.6020833333333329</v>
+        <v>5.5708333333333329</v>
       </c>
       <c r="G41" s="18">
         <f>Parameters!$G$9-G40</f>
-        <v>5.6020833333333329</v>
+        <v>5.5708333333333329</v>
       </c>
       <c r="H41" s="18">
         <f>Parameters!$G$9-H40</f>
-        <v>5.6020833333333329</v>
+        <v>5.5708333333333329</v>
       </c>
       <c r="I41" s="18">
         <f>Parameters!$G$9-I40</f>
-        <v>5.6020833333333329</v>
+        <v>5.5708333333333329</v>
       </c>
       <c r="J41" s="18">
         <f>Parameters!$G$9-J40</f>
-        <v>5.6020833333333329</v>
+        <v>5.5708333333333329</v>
       </c>
       <c r="K41" s="18">
         <f>Parameters!$G$9-K40</f>
-        <v>5.6020833333333329</v>
+        <v>5.5708333333333329</v>
       </c>
       <c r="L41" s="18">
         <f>Parameters!$G$9-L40</f>
-        <v>5.6020833333333329</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+        <v>5.5708333333333329</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -6214,7 +6230,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -6236,16 +6252,16 @@
   <dimension ref="A2:Q43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -6254,7 +6270,7 @@
         <v>Nours Naama</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
@@ -6289,7 +6305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
@@ -6304,7 +6320,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -6313,7 +6329,9 @@
       <c r="D6" s="17">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="17">
+        <v>2.5694444444444447E-2</v>
+      </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -6322,7 +6340,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -6331,7 +6349,9 @@
       <c r="D7" s="17">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="17">
+        <v>5.5555555555555558E-3</v>
+      </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -6340,7 +6360,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -6356,7 +6376,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -6372,7 +6392,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -6390,7 +6410,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -6406,7 +6426,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
@@ -6426,7 +6446,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -6444,7 +6464,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v>Submit button --&gt; one file at the time</v>
@@ -6460,7 +6480,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
         <v>Layout (simple)</v>
@@ -6476,7 +6496,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Client or server? --&gt; research tutor</v>
@@ -6492,7 +6512,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="34" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Html file</v>
@@ -6508,7 +6528,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="34" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Retrieve data from upload file</v>
@@ -6524,7 +6544,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Look into libraries</v>
@@ -6542,7 +6562,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Research the data files</v>
@@ -6558,7 +6578,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="34" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Look into node links and adjacency matrix</v>
@@ -6576,7 +6596,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="34" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Research node.js</v>
@@ -6592,7 +6612,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="34" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Make a github</v>
@@ -6610,7 +6630,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="34" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Make the meeting digital</v>
@@ -6626,7 +6646,7 @@
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="34" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Submit button --&gt; fix errors</v>
@@ -6642,7 +6662,7 @@
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f>INDEX(Parameters!A5:C36,21,2)</f>
         <v>Make 2nd page for visualisations</v>
@@ -6658,7 +6678,7 @@
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f>INDEX(Parameters!A5:C36,22,2)</f>
         <v>Website design</v>
@@ -6674,7 +6694,7 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f>INDEX(Parameters!A7:C38,21,2)</f>
         <v>Make adjacency visualisations</v>
@@ -6690,7 +6710,7 @@
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
         <f>INDEX(Parameters!A7:C38,22,2)</f>
         <v>Make nodelink visualisations</v>
@@ -6706,7 +6726,7 @@
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
         <f>INDEX(Parameters!A9:C40,21,2)</f>
         <v>Make a list of libraries</v>
@@ -6727,7 +6747,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
         <f>INDEX(Parameters!A9:C40,22,2)</f>
         <v>Learn github</v>
@@ -6748,7 +6768,7 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
         <f>INDEX(Parameters!A11:C42,21,2)</f>
         <v>Update working hours</v>
@@ -6764,7 +6784,7 @@
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
         <f>INDEX(Parameters!A11:C42,22,2)</f>
         <v>Update excel</v>
@@ -6780,7 +6800,7 @@
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
         <f>INDEX(Parameters!A13:C44,21,2)</f>
         <v>Learn JavaScript</v>
@@ -6796,7 +6816,7 @@
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
         <f>INDEX(Parameters!A13:C44,22,2)</f>
         <v>Uploaded page</v>
@@ -6812,7 +6832,7 @@
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f>INDEX(Parameters!A15:C46,21,2)</f>
         <v>Parsing</v>
@@ -6828,7 +6848,7 @@
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
     </row>
-    <row r="37" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" t="str">
         <f>INDEX(Parameters!A15:C46,22,2)</f>
         <v>Backlog into excel</v>
@@ -6844,7 +6864,7 @@
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
     </row>
-    <row r="38" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="21">
         <f>SUM(C6:C37)</f>
         <v>0.14583333333333331</v>
@@ -6855,7 +6875,7 @@
       </c>
       <c r="E38" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F38" s="21">
         <f t="shared" si="0"/>
@@ -6886,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
@@ -6898,7 +6918,7 @@
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>31</v>
       </c>
@@ -6912,38 +6932,38 @@
       </c>
       <c r="E40" s="18">
         <f>SUM($C$38:E38)</f>
-        <v>0.29722222222222217</v>
+        <v>0.32847222222222217</v>
       </c>
       <c r="F40" s="18">
         <f>SUM($C$38:F38)</f>
-        <v>0.29722222222222217</v>
+        <v>0.32847222222222217</v>
       </c>
       <c r="G40" s="18">
         <f>SUM($C$38:G38)</f>
-        <v>0.29722222222222217</v>
+        <v>0.32847222222222217</v>
       </c>
       <c r="H40" s="18">
         <f>SUM($C$38:H38)</f>
-        <v>0.29722222222222217</v>
+        <v>0.32847222222222217</v>
       </c>
       <c r="I40" s="18">
         <f>SUM($C$38:I38)</f>
-        <v>0.29722222222222217</v>
+        <v>0.32847222222222217</v>
       </c>
       <c r="J40" s="18">
         <f>SUM($C$38:J38)</f>
-        <v>0.29722222222222217</v>
+        <v>0.32847222222222217</v>
       </c>
       <c r="K40" s="18">
         <f>SUM($C$38:K38)</f>
-        <v>0.29722222222222217</v>
+        <v>0.32847222222222217</v>
       </c>
       <c r="L40" s="18">
         <f>SUM($C$38:L38)</f>
-        <v>0.29722222222222217</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+        <v>0.32847222222222217</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>32</v>
       </c>
@@ -6957,38 +6977,38 @@
       </c>
       <c r="E41" s="18">
         <f>Parameters!$G$10-E40</f>
-        <v>5.5361111111111105</v>
+        <v>5.5048611111111105</v>
       </c>
       <c r="F41" s="18">
         <f>Parameters!$G$10-F40</f>
-        <v>5.5361111111111105</v>
+        <v>5.5048611111111105</v>
       </c>
       <c r="G41" s="18">
         <f>Parameters!$G$10-G40</f>
-        <v>5.5361111111111105</v>
+        <v>5.5048611111111105</v>
       </c>
       <c r="H41" s="18">
         <f>Parameters!$G$10-H40</f>
-        <v>5.5361111111111105</v>
+        <v>5.5048611111111105</v>
       </c>
       <c r="I41" s="18">
         <f>Parameters!$G$10-I40</f>
-        <v>5.5361111111111105</v>
+        <v>5.5048611111111105</v>
       </c>
       <c r="J41" s="18">
         <f>Parameters!$G$10-J40</f>
-        <v>5.5361111111111105</v>
+        <v>5.5048611111111105</v>
       </c>
       <c r="K41" s="18">
         <f>Parameters!$G$10-K40</f>
-        <v>5.5361111111111105</v>
+        <v>5.5048611111111105</v>
       </c>
       <c r="L41" s="18">
         <f>Parameters!$G$10-L40</f>
-        <v>5.5361111111111105</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+        <v>5.5048611111111105</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -7000,7 +7020,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -7028,20 +7048,20 @@
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
@@ -7079,7 +7099,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -7094,7 +7114,7 @@
       </c>
       <c r="E6" s="22">
         <f>SUM(Student3!E6,Student1!E6,Student2!E6,Student4!E6,Student5!E6,Student6!E6)</f>
-        <v>0</v>
+        <v>0.12847222222222224</v>
       </c>
       <c r="F6" s="22">
         <f>SUM(Student3!F6,Student1!F6,Student2!F6,Student4!F6,Student5!F6,Student6!F6)</f>
@@ -7126,14 +7146,14 @@
       </c>
       <c r="M6" s="23">
         <f t="shared" ref="M6:M25" si="0">SUM(C6:L6)</f>
-        <v>0.11666666666666667</v>
+        <v>0.24513888888888891</v>
       </c>
       <c r="N6" s="7">
         <f>IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M6/INDEX(Tasks,1,3),"")</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+        <v>147.08333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -7148,7 +7168,7 @@
       </c>
       <c r="E7" s="22">
         <f>SUM(Student3!E7,Student1!E7,Student2!E7,Student4!E7,Student5!E7,Student6!E7)</f>
-        <v>0</v>
+        <v>2.777777777777778E-2</v>
       </c>
       <c r="F7" s="22">
         <f>SUM(Student3!F7,Student1!F7,Student2!F7,Student4!F7,Student5!F7,Student6!F7)</f>
@@ -7180,14 +7200,14 @@
       </c>
       <c r="M7" s="24">
         <f t="shared" si="0"/>
-        <v>2.0833333333333336E-2</v>
+        <v>4.8611111111111119E-2</v>
       </c>
       <c r="N7" s="7">
         <f>IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M7/INDEX(Tasks,2,3),"")</f>
-        <v>6.2500000000000009</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+        <v>14.583333333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -7241,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -7295,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -7349,7 +7369,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -7403,7 +7423,7 @@
         <v>0.36674816625916867</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
@@ -7457,7 +7477,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -7511,7 +7531,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v>Submit button --&gt; one file at the time</v>
@@ -7565,7 +7585,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>47</v>
       </c>
@@ -7618,7 +7638,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Client or server? --&gt; research tutor</v>
@@ -7672,7 +7692,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Html file</v>
@@ -7726,7 +7746,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Retrieve data from upload file</v>
@@ -7780,7 +7800,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Look into libraries</v>
@@ -7834,7 +7854,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Research the data files</v>
@@ -7888,7 +7908,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Look into node links and adjacency matrix</v>
@@ -7942,7 +7962,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Research node.js</v>
@@ -7996,7 +8016,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Make a github</v>
@@ -8050,7 +8070,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Make the meeting digital</v>
@@ -8104,7 +8124,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Submit button --&gt; fix errors</v>
@@ -8158,7 +8178,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f>INDEX(Parameters!A5:C36,21,2)</f>
         <v>Make 2nd page for visualisations</v>
@@ -8212,7 +8232,7 @@
         <v>49.999999999999993</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f>INDEX(Parameters!A5:C36,22,2)</f>
         <v>Website design</v>
@@ -8266,7 +8286,7 @@
         <v>12.499999999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f>INDEX(Parameters!A7:C38,21,2)</f>
         <v>Make adjacency visualisations</v>
@@ -8320,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
         <f>INDEX(Parameters!A7:C38,22,2)</f>
         <v>Make nodelink visualisations</v>
@@ -8374,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
         <f>INDEX(Parameters!A9:C40,21,2)</f>
         <v>Make a list of libraries</v>
@@ -8428,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
         <f>INDEX(Parameters!A9:C40,22,2)</f>
         <v>Learn github</v>
@@ -8482,7 +8502,7 @@
         <v>4.0749796251018738E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
         <f>INDEX(Parameters!A11:C42,21,2)</f>
         <v>Update working hours</v>
@@ -8536,7 +8556,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
         <f>INDEX(Parameters!A11:C42,22,2)</f>
         <v>Update excel</v>
@@ -8590,7 +8610,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
         <f>INDEX(Parameters!A13:C44,21,2)</f>
         <v>Learn JavaScript</v>
@@ -8644,7 +8664,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
         <f>INDEX(Parameters!A13:C44,22,2)</f>
         <v>Uploaded page</v>
@@ -8698,7 +8718,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f>INDEX(Parameters!A15:C46,21,2)</f>
         <v>Parsing</v>
@@ -8752,7 +8772,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" t="str">
         <f>INDEX(Parameters!A15:C46,22,2)</f>
         <v>Backlog into excel</v>
@@ -8806,8 +8826,8 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="5" t="s">
         <v>34</v>
       </c>
@@ -8842,7 +8862,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" t="str">
         <f>INDEX(Participants,1,2)</f>
         <v>Frederik Ondrikov</v>
@@ -8857,7 +8877,7 @@
       </c>
       <c r="E43" s="17">
         <f>Student1!E38</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F43" s="17">
         <f>Student1!F38</f>
@@ -8889,10 +8909,10 @@
       </c>
       <c r="M43" s="26">
         <f t="shared" ref="M43:M48" si="2">SUM(C43:L43)</f>
-        <v>0.6479166666666667</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.6791666666666667</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" t="str">
         <f>INDEX(Participants,2,2)</f>
         <v>Tessa van Beers</v>
@@ -8907,7 +8927,7 @@
       </c>
       <c r="E44" s="17">
         <f>Student2!E38</f>
-        <v>0.22569444444444445</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="F44" s="17">
         <f>Student2!F38</f>
@@ -8939,10 +8959,10 @@
       </c>
       <c r="M44" s="26">
         <f t="shared" si="2"/>
-        <v>0.96736111111111112</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.99861111111111112</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" t="str">
         <f>INDEX(Participants,3,2)</f>
         <v>Bas Gerritsen</v>
@@ -8957,7 +8977,7 @@
       </c>
       <c r="E45" s="17">
         <f>Student3!E38</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F45" s="17">
         <f>Student3!F38</f>
@@ -8989,10 +9009,10 @@
       </c>
       <c r="M45" s="26">
         <f t="shared" si="2"/>
-        <v>0.35625000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" t="str">
         <f>INDEX(Participants,4,2)</f>
         <v>Jay Benedicto</v>
@@ -9042,7 +9062,7 @@
         <v>0.48124999999999996</v>
       </c>
     </row>
-    <row r="47" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" t="str">
         <f>INDEX(Participants,5,2)</f>
         <v>Lyuben Petrov</v>
@@ -9057,7 +9077,7 @@
       </c>
       <c r="E47" s="17">
         <f>Student5!E38</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F47" s="17">
         <f>Student5!F38</f>
@@ -9089,10 +9109,10 @@
       </c>
       <c r="M47" s="26">
         <f t="shared" si="2"/>
-        <v>0.23125000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.26250000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" t="str">
         <f>INDEX(Participants,6,2)</f>
         <v>Nours Naama</v>
@@ -9107,7 +9127,7 @@
       </c>
       <c r="E48" s="17">
         <f>Student6!E38</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F48" s="17">
         <f>Student6!F38</f>
@@ -9139,7 +9159,7 @@
       </c>
       <c r="M48" s="26">
         <f t="shared" si="2"/>
-        <v>0.29722222222222217</v>
+        <v>0.32847222222222217</v>
       </c>
     </row>
   </sheetData>
